--- a/KM/KM_data.xlsx
+++ b/KM/KM_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="380">
   <si>
     <t>ALUTs</t>
   </si>
@@ -1321,6 +1321,52 @@
   <si>
     <t>failed</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>private_transpose_uli8_ulo8_simd2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>162,458 / 427,200 ( 38 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>268 / 1,518 ( 18 % )</t>
+  </si>
+  <si>
+    <t>1,123 / 2,713 ( 41 % )</t>
+  </si>
+  <si>
+    <t>private_transpose_uli8_ulo8_simd2_cu2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>261,325 / 427,200 ( 61 % )</t>
+  </si>
+  <si>
+    <t>536 / 1,518 ( 35 % )</t>
+  </si>
+  <si>
+    <t>19,605,896 / 55,562,240 ( 35 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,435 / 2,713 ( 90 % )</t>
+  </si>
+  <si>
+    <t>private_transpose_uli8_ulo8_simd4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>257,029 / 427,200 ( 60 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,894,856 / 55,562,240 ( 32 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,367 / 2,713 ( 87 % )</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1516,6 +1562,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1798,10 +1847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2539,7 +2588,7 @@
         <v>77.881</v>
       </c>
       <c r="K21" s="16">
-        <f t="shared" ref="K21:K29" si="1">MMULT(I21,J21)*1000</f>
+        <f t="shared" ref="K21:K32" si="1">MMULT(I21,J21)*1000</f>
         <v>26284837.5</v>
       </c>
     </row>
@@ -2795,1816 +2844,1924 @@
         <v>204208.33333308197</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:11" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>238149</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="8">
         <v>599374</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="20">
         <v>250</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>0.747</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="16">
         <f t="shared" si="1"/>
         <v>186750</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="16"/>
-    </row>
-    <row r="33" spans="1:12" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
+    <row r="30" spans="1:11" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="3">
+        <v>161920</v>
+      </c>
+      <c r="D30" s="8">
+        <v>400519</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I30" s="20">
+        <v>260.41666666700002</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="K30" s="16">
+        <f t="shared" si="1"/>
+        <v>250260.416666987</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C31" s="4">
+        <v>243160</v>
+      </c>
+      <c r="D31" s="14">
+        <v>716016</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I31" s="9">
+        <v>256.25</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="1"/>
+        <v>148881.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="3">
+        <v>260284</v>
+      </c>
+      <c r="D32" s="8">
+        <v>684859</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="I32" s="20">
+        <v>194.444444444</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="K32" s="16">
+        <f t="shared" si="1"/>
+        <v>136694.44444413198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B36" s="4">
         <v>14</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="2"/>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="1:12" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="2"/>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="17" t="s">
+      <c r="I37" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J34" s="18" t="s">
+      <c r="J37" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K37" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
+    <row r="38" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3">
         <v>59239</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D38" s="8">
         <v>76146</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I38" s="20">
         <v>342.5</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J38" s="3">
         <v>86.301000000000002</v>
       </c>
-      <c r="K35" s="16">
-        <f>MMULT(I35,J35)*1000</f>
+      <c r="K38" s="16">
+        <f>MMULT(I38,J38)*1000</f>
         <v>29558092.500000004</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
+    <row r="39" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3">
         <v>61094</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D39" s="8">
         <v>85818</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I39" s="20">
         <v>263.88888888899999</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J39" s="3">
         <v>37.414999999999999</v>
       </c>
-      <c r="K36" s="16">
-        <f>MMULT(I36,J36)*1000</f>
+      <c r="K39" s="16">
+        <f>MMULT(I39,J39)*1000</f>
         <v>9873402.7777819335</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+    <row r="40" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C40" s="3">
         <v>64342</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D40" s="8">
         <v>92181</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I40" s="20">
         <v>290</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J40" s="3">
         <v>34.106000000000002</v>
       </c>
-      <c r="K37" s="16">
-        <f t="shared" ref="K37:K49" si="2">MMULT(I37,J37)*1000</f>
+      <c r="K40" s="16">
+        <f t="shared" ref="K40:K52" si="2">MMULT(I40,J40)*1000</f>
         <v>9890740</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
+    <row r="41" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C41" s="3">
         <v>64334</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D41" s="8">
         <v>91946</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I41" s="20">
         <v>306.25</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J41" s="3">
         <v>32.271000000000001</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K41" s="16">
         <f t="shared" si="2"/>
         <v>9882993.75</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
+    <row r="42" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C42" s="3">
         <v>66891</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D42" s="8">
         <v>95959</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I42" s="20">
         <v>271.875</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J42" s="3">
         <v>36.344000000000001</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K42" s="16">
         <f t="shared" si="2"/>
         <v>9881025</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
+    <row r="43" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C43" s="3">
         <v>65770</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D43" s="8">
         <v>96290</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I43" s="20">
         <v>297.5</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J43" s="3">
         <v>33.229999999999997</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K43" s="16">
         <f t="shared" si="2"/>
         <v>9885925</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
+    <row r="44" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C44" s="3">
         <v>61941</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D44" s="8">
         <v>88976</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I44" s="20">
         <v>315</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J44" s="3">
         <v>31.375</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K44" s="16">
         <f t="shared" si="2"/>
         <v>9883125</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="12" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
+    <row r="45" spans="1:11" s="12" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C45" s="3">
         <v>68892</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D45" s="8">
         <v>97257</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I42" s="20">
+      <c r="I45" s="20">
         <v>302.5</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J45" s="3">
         <v>32.661000000000001</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K45" s="16">
         <f t="shared" si="2"/>
         <v>9879952.5000000019</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
+    <row r="46" spans="1:11" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C46" s="3">
         <v>72638</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D46" s="8">
         <v>112599</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I46" s="20">
         <v>265.625</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J46" s="3">
         <v>37.173000000000002</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K46" s="16">
         <f t="shared" si="2"/>
         <v>9874078.125</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="12" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
+    <row r="47" spans="1:11" s="12" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C47" s="3">
         <v>71176</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D47" s="8">
         <v>106155</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I47" s="20">
         <v>284.375</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J47" s="3">
         <v>17.454999999999998</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K47" s="16">
         <f t="shared" si="2"/>
         <v>4963765.6249999991</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="22" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
+    <row r="48" spans="1:11" s="22" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C48" s="4">
         <v>86588</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D48" s="14">
         <v>136432</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I48" s="9">
         <v>255.555555556</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J48" s="4">
         <v>9.7910000000000004</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K48" s="5">
         <f t="shared" si="2"/>
         <v>2502144.4444487961</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+    <row r="49" spans="1:12" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C49" s="3">
         <v>117130</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D49" s="8">
         <v>200217</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I49" s="20">
         <v>243.75</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J49" s="3">
         <v>5.1689999999999996</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K49" s="16">
         <f t="shared" si="2"/>
         <v>1259943.75</v>
       </c>
-      <c r="L46" s="12" t="s">
+      <c r="L49" s="12" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
+    <row r="50" spans="1:12" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C50" s="3">
         <v>168977</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D50" s="8">
         <v>318108</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I50" s="20">
         <v>247.222222222</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J50" s="3">
         <v>2.617</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K50" s="16">
         <f t="shared" si="2"/>
         <v>646980.55555497401</v>
       </c>
-      <c r="L47" s="12" t="s">
+      <c r="L50" s="12" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
+    <row r="51" spans="1:12" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C51" s="3">
         <v>72737</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D51" s="8">
         <v>104844</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I51" s="20">
         <v>233.333333334</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J51" s="3">
         <v>1098.2639999999999</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K51" s="16">
         <f t="shared" si="2"/>
         <v>256261600.00073215</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="16" t="e">
+    <row r="52" spans="1:12" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="16"/>
-    </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="16"/>
-    </row>
-    <row r="52" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:12" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="16"/>
+    </row>
+    <row r="54" spans="1:12" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="16"/>
+    </row>
+    <row r="55" spans="1:12" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B55" s="4">
         <v>12</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="2"/>
-      <c r="K52" s="16"/>
-    </row>
-    <row r="53" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="6" t="s">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="2"/>
+      <c r="K55" s="16"/>
+    </row>
+    <row r="56" spans="1:12" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D56" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E56" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F56" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H56" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="17" t="s">
+      <c r="I56" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J53" s="18" t="s">
+      <c r="J56" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K53" s="19" t="s">
+      <c r="K56" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="13" t="s">
+    <row r="57" spans="1:12" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C57" s="3">
         <v>61115</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D57" s="8">
         <v>79769</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I57" s="20">
         <v>337.5</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J57" s="3">
         <v>77.847999999999999</v>
       </c>
-      <c r="K54" s="16">
-        <f t="shared" ref="K54:K65" si="3">MMULT(I54,J54)*1000</f>
+      <c r="K57" s="16">
+        <f t="shared" ref="K57:K68" si="3">MMULT(I57,J57)*1000</f>
         <v>26273700</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+    <row r="58" spans="1:12" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C58" s="3">
         <v>62008</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D58" s="8">
         <v>80932</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I58" s="20">
         <v>360</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J58" s="3">
         <v>72.984999999999999</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K58" s="16">
         <f t="shared" si="3"/>
         <v>26274600</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
+    <row r="59" spans="1:12" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B59" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C59" s="8">
         <v>64984</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D59" s="8">
         <v>86624</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I59" s="20">
         <v>343.75</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J59" s="3">
         <v>38.363</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K59" s="16">
         <f t="shared" si="3"/>
         <v>13187281.25</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
+    <row r="60" spans="1:12" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C60" s="3">
         <v>67326</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D60" s="8">
         <v>107031</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I57" s="20">
+      <c r="I60" s="20">
         <v>285</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J60" s="3">
         <v>5.9740000000000002</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K60" s="16">
         <f t="shared" si="3"/>
         <v>1702590.0000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
+    <row r="61" spans="1:12" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C61" s="3">
         <v>66020</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D61" s="8">
         <v>105345</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I61" s="20">
         <v>285</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J61" s="3">
         <v>5.9729999999999999</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K61" s="16">
         <f t="shared" si="3"/>
         <v>1702305</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3" t="s">
+    <row r="62" spans="1:12" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C62" s="3">
         <v>62903</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D62" s="8">
         <v>97700</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I62" s="20">
         <v>287.5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J62" s="3">
         <v>5.8760000000000003</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K62" s="16">
         <f t="shared" si="3"/>
         <v>1689350.0000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
+    <row r="63" spans="1:12" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C63" s="3">
         <v>61638</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D63" s="8">
         <v>95718</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="I60" s="20">
+      <c r="I63" s="20">
         <v>290.625</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J63" s="3">
         <v>5.8220000000000001</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K63" s="16">
         <f t="shared" si="3"/>
         <v>1692018.75</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
+    <row r="64" spans="1:12" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C64" s="3">
         <v>190075</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D64" s="8">
         <v>429192</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H64" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I61" s="20">
+      <c r="I64" s="20">
         <v>275</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J64" s="3">
         <v>0.95</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K64" s="16">
         <f t="shared" si="3"/>
         <v>261250</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
+    <row r="65" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C65" s="3">
         <v>244623</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D65" s="8">
         <v>620250</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="I62" s="20">
+      <c r="I65" s="20">
         <v>256.25</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J65" s="3">
         <v>0.76200000000000001</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K65" s="16">
         <f t="shared" si="3"/>
         <v>195262.5</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
+    <row r="66" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C66" s="3">
         <v>245850</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D66" s="8">
         <v>621931</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="I63" s="20">
+      <c r="I66" s="20">
         <v>280</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J66" s="3">
         <v>0.72099999999999997</v>
       </c>
-      <c r="K63" s="16">
-        <f>MMULT(I63,J63)*1000</f>
+      <c r="K66" s="16">
+        <f>MMULT(I66,J66)*1000</f>
         <v>201880</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
+    <row r="67" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C67" s="3">
         <v>218265</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D67" s="8">
         <v>527068</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F67" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H67" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="I64" s="20">
+      <c r="I67" s="20">
         <v>285</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J67" s="3">
         <v>0.68700000000000006</v>
       </c>
-      <c r="K64" s="16">
+      <c r="K67" s="16">
         <f t="shared" si="3"/>
         <v>195795.00000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="22" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+    <row r="68" spans="1:11" s="22" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A68" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C68" s="4">
         <v>269040</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D68" s="14">
         <v>694873</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F68" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H68" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I68" s="9">
         <v>254.166666666</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J68" s="4">
         <v>0.629</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K68" s="5">
         <f t="shared" si="3"/>
         <v>159870.83333291402</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
+    <row r="72" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B72" s="4">
         <v>17</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="2"/>
-      <c r="K69" s="16"/>
-    </row>
-    <row r="70" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="6" t="s">
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="2"/>
+      <c r="K72" s="16"/>
+    </row>
+    <row r="73" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A73" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B73" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D73" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E73" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F73" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H73" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I70" s="17" t="s">
+      <c r="I73" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J70" s="18" t="s">
+      <c r="J73" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K70" s="19" t="s">
+      <c r="K73" s="19" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C71" s="3">
-        <v>61087</v>
-      </c>
-      <c r="D71" s="8">
-        <v>78196</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I71" s="20">
-        <v>345.83333333299998</v>
-      </c>
-      <c r="J71" s="3">
-        <v>85.472999999999999</v>
-      </c>
-      <c r="K71" s="16">
-        <f>MMULT(I71,J71)*1000</f>
-        <v>29559412.499971505</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="C72" s="3">
-        <v>63012</v>
-      </c>
-      <c r="D72" s="8">
-        <v>87895</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I72" s="20">
-        <v>261.66666666700002</v>
-      </c>
-      <c r="J72" s="3">
-        <v>37.796999999999997</v>
-      </c>
-      <c r="K72" s="16">
-        <f>MMULT(I72,J72)*1000</f>
-        <v>9890215.0000125989</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="C73" s="3">
-        <v>62477</v>
-      </c>
-      <c r="D73" s="8">
-        <v>80365</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I73" s="20">
-        <v>297.5</v>
-      </c>
-      <c r="J73" s="3">
-        <v>49.831000000000003</v>
-      </c>
-      <c r="K73" s="16">
-        <f t="shared" ref="K73:K87" si="4">MMULT(I73,J73)*1000</f>
-        <v>14824722.500000002</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C74" s="3">
+        <v>61087</v>
+      </c>
+      <c r="D74" s="8">
+        <v>78196</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I74" s="20">
+        <v>345.83333333299998</v>
+      </c>
+      <c r="J74" s="3">
+        <v>85.472999999999999</v>
+      </c>
+      <c r="K74" s="16">
+        <f>MMULT(I74,J74)*1000</f>
+        <v>29559412.499971505</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C75" s="3">
+        <v>63012</v>
+      </c>
+      <c r="D75" s="8">
+        <v>87895</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I75" s="20">
+        <v>261.66666666700002</v>
+      </c>
+      <c r="J75" s="3">
+        <v>37.796999999999997</v>
+      </c>
+      <c r="K75" s="16">
+        <f>MMULT(I75,J75)*1000</f>
+        <v>9890215.0000125989</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C76" s="3">
+        <v>62477</v>
+      </c>
+      <c r="D76" s="8">
+        <v>80365</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I76" s="20">
+        <v>297.5</v>
+      </c>
+      <c r="J76" s="3">
+        <v>49.831000000000003</v>
+      </c>
+      <c r="K76" s="16">
+        <f t="shared" ref="K76:K90" si="4">MMULT(I76,J76)*1000</f>
+        <v>14824722.500000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B77" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C77" s="3">
         <v>76726</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D77" s="8">
         <v>101501</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G77" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H77" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I74" s="20">
+      <c r="I77" s="20">
         <v>300</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J77" s="3">
         <v>24.914000000000001</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K77" s="16">
         <f t="shared" si="4"/>
         <v>7474200.0000000009</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
+    <row r="78" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B78" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C78" s="3">
         <v>107967</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D78" s="8">
         <v>174685</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G78" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H78" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I75" s="20">
+      <c r="I78" s="20">
         <v>232.5</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J78" s="3">
         <v>10.893000000000001</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K78" s="16">
         <f t="shared" si="4"/>
         <v>2532622.5</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="3" t="s">
+    <row r="79" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C79" s="3">
         <v>98193</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D79" s="8">
         <v>165605</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G79" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H79" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I76" s="20">
+      <c r="I79" s="20">
         <v>259.375</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J79" s="3">
         <v>9.8059999999999992</v>
       </c>
-      <c r="K76" s="16">
+      <c r="K79" s="16">
         <f t="shared" si="4"/>
         <v>2543431.2499999995</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A77" s="3" t="s">
+    <row r="80" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C80" s="3">
         <v>105514</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D80" s="8">
         <v>143938</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G80" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H80" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="I77" s="20">
+      <c r="I80" s="20">
         <v>290.625</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J80" s="3">
         <v>13.157999999999999</v>
       </c>
-      <c r="K77" s="16">
+      <c r="K80" s="16">
         <f t="shared" si="4"/>
         <v>3824043.75</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="3" t="s">
+    <row r="81" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B81" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C81" s="3">
         <v>163349</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D81" s="8">
         <v>229409</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G81" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I78" s="20">
+      <c r="I81" s="20">
         <v>250</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J81" s="3">
         <v>67.367999999999995</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K81" s="16">
         <f t="shared" si="4"/>
         <v>16842000</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="3" t="s">
+    <row r="82" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B82" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C82" s="3">
         <v>135660</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D82" s="8">
         <v>216391</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G82" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H82" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="I79" s="20">
+      <c r="I82" s="20">
         <v>230.555555556</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J82" s="3">
         <v>37.722000000000001</v>
       </c>
-      <c r="K79" s="16">
+      <c r="K82" s="16">
         <f t="shared" si="4"/>
         <v>8697016.6666834317</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="3" t="s">
+    <row r="83" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A83" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C83" s="3">
         <v>61467</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D83" s="8">
         <v>77939</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G83" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H83" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="I80" s="20">
+      <c r="I83" s="20">
         <v>312.5</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J83" s="3">
         <v>94.557000000000002</v>
       </c>
-      <c r="K80" s="16">
+      <c r="K83" s="16">
         <f t="shared" si="4"/>
         <v>29549062.5</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="3" t="s">
+    <row r="84" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A84" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C84" s="3">
         <v>76652</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D84" s="8">
         <v>106272</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G84" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H84" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="I81" s="20">
+      <c r="I84" s="20">
         <v>275</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J84" s="3">
         <v>53.838000000000001</v>
       </c>
-      <c r="K81" s="16">
+      <c r="K84" s="16">
         <f t="shared" si="4"/>
         <v>14805450</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A82" s="3" t="s">
+    <row r="85" spans="1:11" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C85" s="3">
         <v>67497</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D85" s="8">
         <v>91915</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="H85" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I82" s="20">
+      <c r="I85" s="20">
         <v>325</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J85" s="3">
         <v>45.59</v>
       </c>
-      <c r="K82" s="16">
-        <f>MMULT(I82,J82)*1000</f>
+      <c r="K85" s="16">
+        <f>MMULT(I85,J85)*1000</f>
         <v>14816750.000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="3" t="s">
+    <row r="86" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A86" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C86" s="3">
         <v>76256</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D86" s="8">
         <v>105588</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G86" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H86" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I83" s="20">
+      <c r="I86" s="20">
         <v>267.5</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J86" s="3">
         <v>55.344999999999999</v>
       </c>
-      <c r="K83" s="16">
+      <c r="K86" s="16">
         <f t="shared" si="4"/>
         <v>14804787.5</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A84" s="3" t="s">
+    <row r="87" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C87" s="3">
         <v>67323</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D87" s="8">
         <v>91359</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E87" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F87" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G87" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H87" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I84" s="20">
+      <c r="I87" s="20">
         <v>325</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J87" s="3">
         <v>45.625999999999998</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K87" s="16">
         <f t="shared" si="4"/>
         <v>14828449.999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="3" t="s">
+    <row r="88" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C88" s="3">
         <v>94743</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D88" s="8">
         <v>163548</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F88" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G88" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H88" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I85" s="20">
+      <c r="I88" s="20">
         <v>295</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J88" s="3">
         <v>8.6289999999999996</v>
       </c>
-      <c r="K85" s="16">
+      <c r="K88" s="16">
         <f t="shared" si="4"/>
         <v>2545555</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A86" s="3" t="s">
+    <row r="89" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A89" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C89" s="3">
         <v>142626</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D89" s="8">
         <v>269768</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G89" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H89" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="I86" s="20">
+      <c r="I89" s="20">
         <v>275</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J89" s="3">
         <v>4.915</v>
       </c>
-      <c r="K86" s="16">
+      <c r="K89" s="16">
         <f t="shared" si="4"/>
         <v>1351625</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="4" t="s">
+    <row r="90" spans="1:11" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A90" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C90" s="4">
         <v>238928</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D90" s="14">
         <v>481719</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F90" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G90" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H90" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I90" s="9">
         <v>267.5</v>
       </c>
-      <c r="J87" s="4">
+      <c r="J90" s="4">
         <v>2.9630000000000001</v>
       </c>
-      <c r="K87" s="5">
+      <c r="K90" s="5">
         <f t="shared" si="4"/>
         <v>792602.50000000012</v>
       </c>

--- a/KM/KM_data.xlsx
+++ b/KM/KM_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="378">
   <si>
     <t>ALUTs</t>
   </si>
@@ -897,10 +897,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>baseline(no_local_private)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>baseline</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -980,7 +976,241 @@
     <t>uli8_ulo4_cu3</t>
   </si>
   <si>
-    <t>private_rm_for</t>
+    <t>use local memory for cluster[128*8]; use private memory for feature[8]; remove unused for-loop; transpose feature[25600*8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. SWI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. NDRange+Channel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1_transpose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2_transpose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2_transpose_uli8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2_transpose_read_uli8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2_transpose_uli8_ulo8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4_transpose_uli8_ulo6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2_transpose_uli8_ulo12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kernel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster_1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster_1-1_uli8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster_1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster_1-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster_1-4_uli8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use channel to transfer cluster[128*8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use channel to transfer cluster[128*8]; use private memory for feature[8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster_1-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster_1-16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster_1-8_uli4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2stages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use channel to transfer intermediate value between two stages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature+cluster_1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use channel to transfer cluster[128*8] and feature[25600*8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature+cluster_1-2_transpose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use channel to transfer feature[25600*8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_1-2_transpose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_1-4_transpose_uli8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_1-8_transpose_uli8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_1-16_transpose_uli8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uli8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transpose feature[25600*8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transpose feature[25600*8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transpose feature[25600*8]; read feature[] continuously in kmeans_in kernel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use channel to transfer cluster[128*8] and feature[25600*8]; transpose feature[25600*8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use channel to transfer feature[25600*8]; transpose feature[25600*8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use private memory for feature[8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use private memory for feature[8]; transpose feature[25600*8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use private memory for feature[8]; adjust on data dependency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use private memory for feature[8]; ul8 manually on cluster[128*8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use private memory for feature[8]; ul8 manually on feature[25600*8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use private memory for feature[8]; transpose feature[25600*8]; ul8 manually on cluster[128*8] and feature[25600*8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use private memory for feature[8]; transpose feature[25600*8]; adjust on data dependency; ul8 manually on cluster[128*8] and feature[25600*8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">use private memory for feature[8]; ul8 manually on feature[25600*8]; ul2 manually on the outmost loop, similar to simd2 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use private memory for feature[8]; ul8 manually on feature[25600*8]; ul2 on the outmost loop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>162,458 / 427,200 ( 38 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>268 / 1,518 ( 18 % )</t>
+  </si>
+  <si>
+    <t>1,123 / 2,713 ( 41 % )</t>
+  </si>
+  <si>
+    <t>261,325 / 427,200 ( 61 % )</t>
+  </si>
+  <si>
+    <t>536 / 1,518 ( 35 % )</t>
+  </si>
+  <si>
+    <t>19,605,896 / 55,562,240 ( 35 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,435 / 2,713 ( 90 % )</t>
+  </si>
+  <si>
+    <t>257,029 / 427,200 ( 60 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,894,856 / 55,562,240 ( 32 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,367 / 2,713 ( 87 % )</t>
+  </si>
+  <si>
+    <t>baseline_no_lmem</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -988,39 +1218,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>private_uli8_ulo8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_transpose</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_uli8_ulo16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_uli8_ulo20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_uli8_ulo8_cu2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_uli8_ulo12_cu2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_transpose_uli8_ulo8_cu3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_transpose_uli8_ulo12_cu2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use local memory for cluster[128*8]; use private memory for feature[8]; remove unused for-loop; transpose feature[25600*8]</t>
+    <t>use local memory for cluster[128*8]; remove unused for-loop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1028,11 +1230,129 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2. SWI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. NDRange+Channel</t>
+    <t>51,193 / 427,200 ( 12 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,875,792 / 55,562,240 ( 5 % )</t>
+  </si>
+  <si>
+    <t>360 / 2,713 ( 13 % )</t>
+  </si>
+  <si>
+    <t>idem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_uli8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_uli8_ulo4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_uli8_ulo8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_uli8_ulo16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_uli8_ulo20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_uli8_ulo8_cu2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_uli8_ulo12_cu2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_uli8_ulo8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_uli8_ulo12_cu2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_uli8_ulo8_cu3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_uli8_ulo8_simd2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_uli8_ulo8_simd2_cu2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_uli8_ulo8_simd4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_uli8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_uli8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_rm+=_uli8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_ulm_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_ulm_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_ulm_12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_rm+=_ulm_12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_ulm_2_ulo2m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_ulm_2_ulo4m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_ulm_2_ulo2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1_transpose_uli8_ulo2m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1_transpose_read_uli8_ulo2m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1_transpose_read_uli8_ulo12_ulo2m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1_transpose_read_uli8_ulo16_ulo2m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idem</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1040,333 +1360,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1-1_transpose</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2_transpose</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2_transpose_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2_transpose_read_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1(2)_transpose_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1(2)_transpose_read_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2_transpose_uli8_ulo8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-4_transpose_uli8_ulo6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2_transpose_uli8_ulo12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1(2)_transpose_read_uli8_ulo12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1(2)_transpose_read_uli8_ulo16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kernel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cluster_1-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cluster_1-1_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cluster_1-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cluster_1-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cluster_1-4_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cluster_1-4_private_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use channel to transfer cluster[128*8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use channel to transfer cluster[128*8]; use private memory for feature[8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cluster_1-8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cluster_1-16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cluster_1-8_uli4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2stages</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use channel to transfer intermediate value between two stages</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>feature+cluster_1-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use channel to transfer cluster[128*8] and feature[25600*8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>feature+cluster_1-2_transpose</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>feature_1-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use channel to transfer feature[25600*8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>feature_1-2_transpose</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>feature_1-4_transpose_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>feature_1-8_transpose_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>feature_1-16_transpose_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_transpose_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>transpose feature[25600*8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>transpose feature[25600*8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>transpose feature[25600*8]; read feature[] continuously in kmeans_in kernel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use channel to transfer cluster[128*8] and feature[25600*8]; transpose feature[25600*8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use channel to transfer feature[25600*8]; transpose feature[25600*8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use private memory for feature[8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_rm+=_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use private memory for feature[8]; transpose feature[25600*8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use private memory for feature[8]; adjust on data dependency</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_ul_manually_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use private memory for feature[8]; ul8 manually on cluster[128*8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_ul_manually_2</t>
-  </si>
-  <si>
-    <t>use private memory for feature[8]; ul8 manually on feature[25600*8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_transpose_ul_manually_12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use private memory for feature[8]; transpose feature[25600*8]; ul8 manually on cluster[128*8] and feature[25600*8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_transpose_rm+=_ul_manually_12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use private memory for feature[8]; transpose feature[25600*8]; adjust on data dependency; ul8 manually on cluster[128*8] and feature[25600*8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_ul_manually_2_simd2_manually</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_ul_manually_2_simd4_manually</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_ul_manually_2_simd8_manually</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_ul_manually_2_simd16_manually</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">use private memory for feature[8]; ul8 manually on feature[25600*8]; ul2 manually on the outmost loop, similar to simd2 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_ul_manually_2_ulo2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use private memory for feature[8]; ul8 manually on feature[25600*8]; ul2 on the outmost loop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,145 / 427,200 ( 23 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>131 / 1,518 ( 9 % )</t>
-  </si>
-  <si>
-    <t>11,026,256 / 55,562,240 ( 20 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>904 / 2,713 ( 33 % )</t>
-  </si>
-  <si>
-    <t>147,558 / 427,200 ( 35 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>259 / 1,518 ( 17 % )</t>
-  </si>
-  <si>
-    <t>13,725,904 / 55,562,240 ( 25 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,188 / 2,713 ( 44 % )</t>
-  </si>
-  <si>
-    <t>failed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>private_transpose_uli8_ulo8_simd2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>162,458 / 427,200 ( 38 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>268 / 1,518 ( 18 % )</t>
-  </si>
-  <si>
-    <t>1,123 / 2,713 ( 41 % )</t>
-  </si>
-  <si>
-    <t>private_transpose_uli8_ulo8_simd2_cu2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>261,325 / 427,200 ( 61 % )</t>
-  </si>
-  <si>
-    <t>536 / 1,518 ( 35 % )</t>
-  </si>
-  <si>
-    <t>19,605,896 / 55,562,240 ( 35 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,435 / 2,713 ( 90 % )</t>
-  </si>
-  <si>
-    <t>private_transpose_uli8_ulo8_simd4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>257,029 / 427,200 ( 60 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17,894,856 / 55,562,240 ( 32 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,367 / 2,713 ( 87 % )</t>
+    <t>cluster_1-4_pmem_uli8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1439,7 +1434,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1476,6 +1471,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1491,7 +1492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1566,6 +1567,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1847,15 +1851,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.25" customWidth="1"/>
+    <col min="1" max="1" width="33.125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
     <col min="9" max="11" width="9" style="21"/>
@@ -1866,7 +1870,7 @@
         <v>258</v>
       </c>
       <c r="B1" s="4">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1878,10 +1882,10 @@
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>0</v>
@@ -1913,7 +1917,7 @@
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="C3" s="3">
         <v>59119</v>
@@ -1946,10 +1950,10 @@
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="C4" s="3">
         <v>60786</v>
@@ -1982,10 +1986,10 @@
     </row>
     <row r="5" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>264</v>
+        <v>341</v>
       </c>
       <c r="C5" s="3">
         <v>59268</v>
@@ -2018,10 +2022,10 @@
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C6" s="3">
         <v>61320</v>
@@ -2054,10 +2058,10 @@
     </row>
     <row r="7" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C7" s="3">
         <v>132410</v>
@@ -2090,10 +2094,10 @@
     </row>
     <row r="8" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C8" s="3">
         <v>272369</v>
@@ -2126,10 +2130,10 @@
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C9" s="3">
         <v>154666</v>
@@ -2162,10 +2166,10 @@
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C10" s="3">
         <v>186862</v>
@@ -2198,10 +2202,10 @@
     </row>
     <row r="11" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C11" s="3">
         <v>193960</v>
@@ -2234,10 +2238,10 @@
     </row>
     <row r="12" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C12" s="3">
         <v>63131</v>
@@ -2270,10 +2274,10 @@
     </row>
     <row r="13" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C13" s="3">
         <v>80744</v>
@@ -2306,10 +2310,10 @@
     </row>
     <row r="14" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C14" s="3">
         <v>97680</v>
@@ -2342,10 +2346,10 @@
     </row>
     <row r="15" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" s="3">
         <v>114440</v>
@@ -2378,10 +2382,10 @@
     </row>
     <row r="16" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C16" s="3">
         <v>181769</v>
@@ -2414,10 +2418,10 @@
     </row>
     <row r="17" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C17" s="3">
         <v>75562</v>
@@ -2450,10 +2454,10 @@
     </row>
     <row r="18" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18" s="3">
         <v>103983</v>
@@ -2486,10 +2490,10 @@
     </row>
     <row r="19" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C19" s="3">
         <v>146009</v>
@@ -2522,10 +2526,10 @@
     </row>
     <row r="20" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C20" s="3">
         <v>245554</v>
@@ -2558,10 +2562,10 @@
     </row>
     <row r="21" spans="1:11" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>280</v>
+        <v>342</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>281</v>
+        <v>340</v>
       </c>
       <c r="C21" s="3">
         <v>59704</v>
@@ -2588,16 +2592,16 @@
         <v>77.881</v>
       </c>
       <c r="K21" s="16">
-        <f t="shared" ref="K21:K32" si="1">MMULT(I21,J21)*1000</f>
+        <f t="shared" ref="K21:K34" si="1">MMULT(I21,J21)*1000</f>
         <v>26284837.5</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>282</v>
+        <v>350</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C22" s="3">
         <v>121369</v>
@@ -2630,10 +2634,10 @@
     </row>
     <row r="23" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>284</v>
+        <v>351</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C23" s="3">
         <v>200182</v>
@@ -2666,10 +2670,10 @@
     </row>
     <row r="24" spans="1:11" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>285</v>
+        <v>352</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C24" s="3">
         <v>230214</v>
@@ -2702,10 +2706,10 @@
     </row>
     <row r="25" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>286</v>
+        <v>353</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C25" s="3">
         <v>196613</v>
@@ -2738,10 +2742,10 @@
     </row>
     <row r="26" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C26" s="3">
         <v>252417</v>
@@ -2774,245 +2778,275 @@
     </row>
     <row r="27" spans="1:11" s="10" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>283</v>
+        <v>348</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C27" s="3">
-        <v>121846</v>
+        <v>62095</v>
       </c>
       <c r="D27" s="8">
-        <v>248703</v>
+        <v>88485</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>85</v>
+        <v>344</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>87</v>
+        <v>345</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>88</v>
+        <v>346</v>
       </c>
       <c r="I27" s="20">
-        <v>278.125</v>
+        <v>297.5</v>
       </c>
       <c r="J27" s="3">
-        <v>1.6719999999999999</v>
+        <v>11.212</v>
       </c>
       <c r="K27" s="16">
         <f>MMULT(I27,J27)*1000</f>
+        <v>3335569.9999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="16" t="e">
+        <f>MMULT(I28,J28)*1000</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C29" s="3">
+        <v>121846</v>
+      </c>
+      <c r="D29" s="8">
+        <v>248703</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="20">
+        <v>278.125</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="K29" s="16">
+        <f>MMULT(I29,J29)*1000</f>
         <v>465025</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C28" s="3">
+    <row r="30" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C30" s="3">
         <v>243206</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D30" s="8">
         <v>616438</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I30" s="20">
         <v>270.83333333299998</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J30" s="3">
         <v>0.754</v>
       </c>
-      <c r="K28" s="16">
-        <f>MMULT(I28,J28)*1000</f>
+      <c r="K30" s="16">
+        <f>MMULT(I30,J30)*1000</f>
         <v>204208.33333308197</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C29" s="3">
+    <row r="31" spans="1:11" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C31" s="3">
         <v>238149</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D31" s="8">
         <v>599374</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I31" s="20">
         <v>250</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J31" s="3">
         <v>0.747</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K31" s="16">
         <f t="shared" si="1"/>
         <v>186750</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C30" s="3">
+    <row r="32" spans="1:11" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C32" s="3">
         <v>161920</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D32" s="8">
         <v>400519</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="I30" s="20">
+      <c r="E32" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I32" s="20">
         <v>260.41666666700002</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J32" s="3">
         <v>0.96099999999999997</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K32" s="16">
         <f t="shared" si="1"/>
         <v>250260.416666987</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C31" s="4">
+    <row r="33" spans="1:11" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C33" s="4">
         <v>243160</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D33" s="14">
         <v>716016</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="I31" s="9">
+      <c r="E33" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="I33" s="9">
         <v>256.25</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J33" s="4">
         <v>0.58099999999999996</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K33" s="5">
         <f t="shared" si="1"/>
         <v>148881.25</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C32" s="3">
+    <row r="34" spans="1:11" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C34" s="3">
         <v>260284</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D34" s="8">
         <v>684859</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="E34" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="I32" s="20">
+      <c r="G34" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="I34" s="20">
         <v>194.444444444</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J34" s="3">
         <v>0.70299999999999996</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K34" s="16">
         <f t="shared" si="1"/>
         <v>136694.44444413198</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="16"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
@@ -3027,532 +3061,480 @@
       <c r="J35" s="3"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B36" s="4">
-        <v>14</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="2"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="C37" s="7" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="16"/>
+    </row>
+    <row r="38" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B38" s="4">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="2"/>
+      <c r="K38" s="16"/>
+    </row>
+    <row r="39" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I37" s="17" t="s">
+      <c r="I39" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J37" s="18" t="s">
+      <c r="J39" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="19" t="s">
+      <c r="K39" s="19" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3">
-        <v>59239</v>
-      </c>
-      <c r="D38" s="8">
-        <v>76146</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I38" s="20">
-        <v>342.5</v>
-      </c>
-      <c r="J38" s="3">
-        <v>86.301000000000002</v>
-      </c>
-      <c r="K38" s="16">
-        <f>MMULT(I38,J38)*1000</f>
-        <v>29558092.500000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3">
-        <v>61094</v>
-      </c>
-      <c r="D39" s="8">
-        <v>85818</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I39" s="20">
-        <v>263.88888888899999</v>
-      </c>
-      <c r="J39" s="3">
-        <v>37.414999999999999</v>
-      </c>
-      <c r="K39" s="16">
-        <f>MMULT(I39,J39)*1000</f>
-        <v>9873402.7777819335</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>338</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B40" s="3"/>
       <c r="C40" s="3">
+        <v>59239</v>
+      </c>
+      <c r="D40" s="8">
+        <v>76146</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40" s="20">
+        <v>342.5</v>
+      </c>
+      <c r="J40" s="3">
+        <v>86.301000000000002</v>
+      </c>
+      <c r="K40" s="16">
+        <f>MMULT(I40,J40)*1000</f>
+        <v>29558092.500000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3">
+        <v>61094</v>
+      </c>
+      <c r="D41" s="8">
+        <v>85818</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="20">
+        <v>263.88888888899999</v>
+      </c>
+      <c r="J41" s="3">
+        <v>37.414999999999999</v>
+      </c>
+      <c r="K41" s="16">
+        <f>MMULT(I41,J41)*1000</f>
+        <v>9873402.7777819335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C42" s="3">
         <v>64342</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D42" s="8">
         <v>92181</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I42" s="20">
         <v>290</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J42" s="3">
         <v>34.106000000000002</v>
       </c>
-      <c r="K40" s="16">
-        <f t="shared" ref="K40:K52" si="2">MMULT(I40,J40)*1000</f>
+      <c r="K42" s="16">
+        <f t="shared" ref="K42:K52" si="2">MMULT(I42,J42)*1000</f>
         <v>9890740</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C41" s="3">
+    <row r="43" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C43" s="3">
         <v>64334</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D43" s="8">
         <v>91946</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I43" s="20">
         <v>306.25</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J43" s="3">
         <v>32.271000000000001</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K43" s="16">
         <f t="shared" si="2"/>
         <v>9882993.75</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C42" s="3">
-        <v>66891</v>
-      </c>
-      <c r="D42" s="8">
-        <v>95959</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I42" s="20">
-        <v>271.875</v>
-      </c>
-      <c r="J42" s="3">
-        <v>36.344000000000001</v>
-      </c>
-      <c r="K42" s="16">
-        <f t="shared" si="2"/>
-        <v>9881025</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C43" s="3">
-        <v>65770</v>
-      </c>
-      <c r="D43" s="8">
-        <v>96290</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I43" s="20">
-        <v>297.5</v>
-      </c>
-      <c r="J43" s="3">
-        <v>33.229999999999997</v>
-      </c>
-      <c r="K43" s="16">
-        <f t="shared" si="2"/>
-        <v>9885925</v>
-      </c>
-    </row>
     <row r="44" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="C44" s="3">
-        <v>61941</v>
+        <v>66891</v>
       </c>
       <c r="D44" s="8">
-        <v>88976</v>
+        <v>95959</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I44" s="20">
-        <v>315</v>
+        <v>271.875</v>
       </c>
       <c r="J44" s="3">
-        <v>31.375</v>
+        <v>36.344000000000001</v>
       </c>
       <c r="K44" s="16">
-        <f t="shared" si="2"/>
-        <v>9883125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
+        <f>MMULT(I44,J44)*1000</f>
+        <v>9881025</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="C45" s="3">
-        <v>68892</v>
+        <v>65770</v>
       </c>
       <c r="D45" s="8">
-        <v>97257</v>
+        <v>96290</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I45" s="20">
+        <v>297.5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>33.229999999999997</v>
+      </c>
+      <c r="K45" s="16">
+        <f>MMULT(I45,J45)*1000</f>
+        <v>9885925</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C46" s="3">
+        <v>61941</v>
+      </c>
+      <c r="D46" s="8">
+        <v>88976</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I46" s="20">
+        <v>315</v>
+      </c>
+      <c r="J46" s="3">
+        <v>31.375</v>
+      </c>
+      <c r="K46" s="16">
+        <f>MMULT(I46,J46)*1000</f>
+        <v>9883125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="12" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C47" s="3">
+        <v>68892</v>
+      </c>
+      <c r="D47" s="8">
+        <v>97257</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I47" s="20">
         <v>302.5</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J47" s="3">
         <v>32.661000000000001</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K47" s="16">
         <f t="shared" si="2"/>
         <v>9879952.5000000019</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C46" s="3">
+    <row r="48" spans="1:11" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C48" s="3">
         <v>72638</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D48" s="8">
         <v>112599</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I48" s="20">
         <v>265.625</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J48" s="3">
         <v>37.173000000000002</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K48" s="16">
         <f t="shared" si="2"/>
         <v>9874078.125</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C47" s="3">
+    <row r="49" spans="1:11" s="12" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C49" s="3">
         <v>71176</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D49" s="8">
         <v>106155</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I49" s="20">
         <v>284.375</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J49" s="3">
         <v>17.454999999999998</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K49" s="16">
         <f t="shared" si="2"/>
         <v>4963765.6249999991</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="22" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C48" s="4">
+    <row r="50" spans="1:11" s="22" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="4">
         <v>86588</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D50" s="14">
         <v>136432</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I50" s="9">
         <v>255.555555556</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J50" s="4">
         <v>9.7910000000000004</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K50" s="5">
         <f t="shared" si="2"/>
         <v>2502144.4444487961</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C49" s="3">
-        <v>117130</v>
-      </c>
-      <c r="D49" s="8">
-        <v>200217</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="I49" s="20">
-        <v>243.75</v>
-      </c>
-      <c r="J49" s="3">
-        <v>5.1689999999999996</v>
-      </c>
-      <c r="K49" s="16">
-        <f t="shared" si="2"/>
-        <v>1259943.75</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C50" s="3">
-        <v>168977</v>
-      </c>
-      <c r="D50" s="8">
-        <v>318108</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="I50" s="20">
-        <v>247.222222222</v>
-      </c>
-      <c r="J50" s="3">
-        <v>2.617</v>
-      </c>
-      <c r="K50" s="16">
-        <f t="shared" si="2"/>
-        <v>646980.55555497401</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="C51" s="3">
         <v>72737</v>
@@ -3583,7 +3565,7 @@
         <v>256261600.00073215</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3599,7 +3581,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3612,7 +3594,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:12" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3625,9 +3607,9 @@
       <c r="J54" s="3"/>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:12" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B55" s="4">
         <v>12</v>
@@ -3640,12 +3622,12 @@
       <c r="H55" s="2"/>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:12" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>0</v>
@@ -3675,7 +3657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="13" t="s">
         <v>219</v>
       </c>
@@ -3704,16 +3686,16 @@
         <v>77.847999999999999</v>
       </c>
       <c r="K57" s="16">
-        <f t="shared" ref="K57:K68" si="3">MMULT(I57,J57)*1000</f>
+        <f t="shared" ref="K57:K60" si="3">MMULT(I57,J57)*1000</f>
         <v>26273700</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="C58" s="3">
         <v>62008</v>
@@ -3744,12 +3726,12 @@
         <v>26274600</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C59" s="8">
         <v>64984</v>
@@ -3780,12 +3762,12 @@
         <v>13187281.25</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C60" s="3">
         <v>67326</v>
@@ -3816,12 +3798,12 @@
         <v>1702590.0000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="C61" s="3">
         <v>66020</v>
@@ -3848,196 +3830,196 @@
         <v>5.9729999999999999</v>
       </c>
       <c r="K61" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K61:K68" si="4">MMULT(I61,J61)*1000</f>
         <v>1702305</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="C62" s="3">
+        <v>190075</v>
+      </c>
+      <c r="D62" s="8">
+        <v>429192</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I62" s="20">
+        <v>275</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="K62" s="16">
+        <f t="shared" si="4"/>
+        <v>261250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C63" s="3">
+        <v>245850</v>
+      </c>
+      <c r="D63" s="8">
+        <v>621931</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I63" s="20">
+        <v>280</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="K63" s="16">
+        <f t="shared" si="4"/>
+        <v>201880</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C64" s="3">
+        <v>244623</v>
+      </c>
+      <c r="D64" s="8">
+        <v>620250</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I64" s="20">
+        <v>256.25</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="K64" s="16">
+        <f t="shared" si="4"/>
+        <v>195262.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C65" s="3">
         <v>62903</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D65" s="8">
         <v>97700</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I62" s="20">
+      <c r="I65" s="20">
         <v>287.5</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J65" s="3">
         <v>5.8760000000000003</v>
       </c>
-      <c r="K62" s="16">
-        <f t="shared" si="3"/>
+      <c r="K65" s="16">
+        <f t="shared" si="4"/>
         <v>1689350.0000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C63" s="3">
+    <row r="66" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C66" s="3">
         <v>61638</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D66" s="8">
         <v>95718</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="I63" s="20">
+      <c r="I66" s="20">
         <v>290.625</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J66" s="3">
         <v>5.8220000000000001</v>
       </c>
-      <c r="K63" s="16">
-        <f t="shared" si="3"/>
+      <c r="K66" s="16">
+        <f t="shared" si="4"/>
         <v>1692018.75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C64" s="3">
-        <v>190075</v>
-      </c>
-      <c r="D64" s="8">
-        <v>429192</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="I64" s="20">
-        <v>275</v>
-      </c>
-      <c r="J64" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="K64" s="16">
-        <f t="shared" si="3"/>
-        <v>261250</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C65" s="3">
-        <v>244623</v>
-      </c>
-      <c r="D65" s="8">
-        <v>620250</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="I65" s="20">
-        <v>256.25</v>
-      </c>
-      <c r="J65" s="3">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="K65" s="16">
-        <f t="shared" si="3"/>
-        <v>195262.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C66" s="3">
-        <v>245850</v>
-      </c>
-      <c r="D66" s="8">
-        <v>621931</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="I66" s="20">
-        <v>280</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="K66" s="16">
-        <f>MMULT(I66,J66)*1000</f>
-        <v>201880</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>304</v>
+        <v>373</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="C67" s="3">
         <v>218265</v>
@@ -4064,16 +4046,16 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="K67" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>195795.00000000003</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="22" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C68" s="4">
         <v>269040</v>
@@ -4100,13 +4082,13 @@
         <v>0.629</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>159870.83333291402</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="B72" s="4">
         <v>17</v>
@@ -4121,10 +4103,10 @@
     </row>
     <row r="73" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>0</v>
@@ -4156,10 +4138,10 @@
     </row>
     <row r="74" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C74" s="3">
         <v>61087</v>
@@ -4192,10 +4174,10 @@
     </row>
     <row r="75" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C75" s="3">
         <v>63012</v>
@@ -4228,10 +4210,10 @@
     </row>
     <row r="76" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C76" s="3">
         <v>62477</v>
@@ -4258,16 +4240,16 @@
         <v>49.831000000000003</v>
       </c>
       <c r="K76" s="16">
-        <f t="shared" ref="K76:K90" si="4">MMULT(I76,J76)*1000</f>
+        <f t="shared" ref="K76:K90" si="5">MMULT(I76,J76)*1000</f>
         <v>14824722.500000002</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C77" s="3">
         <v>76726</v>
@@ -4294,16 +4276,16 @@
         <v>24.914000000000001</v>
       </c>
       <c r="K77" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7474200.0000000009</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C78" s="3">
         <v>107967</v>
@@ -4330,16 +4312,16 @@
         <v>10.893000000000001</v>
       </c>
       <c r="K78" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2532622.5</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C79" s="3">
         <v>98193</v>
@@ -4366,16 +4348,16 @@
         <v>9.8059999999999992</v>
       </c>
       <c r="K79" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2543431.2499999995</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C80" s="3">
         <v>105514</v>
@@ -4402,16 +4384,16 @@
         <v>13.157999999999999</v>
       </c>
       <c r="K80" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3824043.75</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C81" s="3">
         <v>163349</v>
@@ -4438,16 +4420,16 @@
         <v>67.367999999999995</v>
       </c>
       <c r="K81" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16842000</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C82" s="3">
         <v>135660</v>
@@ -4474,16 +4456,16 @@
         <v>37.722000000000001</v>
       </c>
       <c r="K82" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8697016.6666834317</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C83" s="3">
         <v>61467</v>
@@ -4510,16 +4492,16 @@
         <v>94.557000000000002</v>
       </c>
       <c r="K83" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29549062.5</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C84" s="3">
         <v>76652</v>
@@ -4546,16 +4528,16 @@
         <v>53.838000000000001</v>
       </c>
       <c r="K84" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14805450</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="C85" s="3">
         <v>67497</v>
@@ -4588,10 +4570,10 @@
     </row>
     <row r="86" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C86" s="3">
         <v>76256</v>
@@ -4618,16 +4600,16 @@
         <v>55.344999999999999</v>
       </c>
       <c r="K86" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14804787.5</v>
       </c>
     </row>
     <row r="87" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="C87" s="3">
         <v>67323</v>
@@ -4654,16 +4636,16 @@
         <v>45.625999999999998</v>
       </c>
       <c r="K87" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14828449.999999998</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C88" s="3">
         <v>94743</v>
@@ -4690,16 +4672,16 @@
         <v>8.6289999999999996</v>
       </c>
       <c r="K88" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2545555</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C89" s="3">
         <v>142626</v>
@@ -4726,16 +4708,16 @@
         <v>4.915</v>
       </c>
       <c r="K89" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1351625</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C90" s="4">
         <v>238928</v>
@@ -4762,7 +4744,7 @@
         <v>2.9630000000000001</v>
       </c>
       <c r="K90" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>792602.50000000012</v>
       </c>
     </row>

--- a/KM/KM_data.xlsx
+++ b/KM/KM_data.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="18975" windowHeight="10365"/>
   </bookViews>
   <sheets>
-    <sheet name="Kmeans" sheetId="1" r:id="rId1"/>
+    <sheet name="KM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="410">
   <si>
     <t>ALUTs</t>
   </si>
@@ -452,63 +452,9 @@
     <t>331 / 2,713 ( 12 % )</t>
   </si>
   <si>
-    <t>54,323 / 427,200 ( 13 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>28 / 1,518 ( 2 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,931,024 / 55,562,240 ( 5 % )</t>
-  </si>
-  <si>
-    <t>346 / 2,713 ( 13 % )</t>
-  </si>
-  <si>
-    <t>53,906 / 427,200 ( 13 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>19 / 1,518 ( 1 % )</t>
   </si>
   <si>
-    <t>375 / 2,713 ( 14 % )</t>
-  </si>
-  <si>
-    <t>51,963 / 427,200 ( 12 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>19 / 1,518 ( 1 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,585,680 / 55,562,240 ( 6 % )</t>
-  </si>
-  <si>
-    <t>431 / 2,713 ( 16 % )</t>
-  </si>
-  <si>
-    <t>55,736 / 427,200 ( 13 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,243,984 / 55,562,240 ( 6 % )</t>
-  </si>
-  <si>
-    <t>390 / 2,713 ( 14 % )</t>
-  </si>
-  <si>
-    <t>60,557 / 427,200 ( 14 % )</t>
-  </si>
-  <si>
-    <t>26 / 1,518 ( 2 % )</t>
-  </si>
-  <si>
-    <t>3,305,360 / 55,562,240 ( 6 % )</t>
-  </si>
-  <si>
     <t>416 / 2,713 ( 15 % )</t>
   </si>
   <si>
@@ -538,20 +484,6 @@
     <t>701 / 2,713 ( 26 % )</t>
   </si>
   <si>
-    <t>60,681 / 427,200 ( 14 % )</t>
-  </si>
-  <si>
-    <t>36 / 1,518 ( 2 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,989,008 / 55,562,240 ( 23 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>930 / 2,713 ( 34 % )</t>
-  </si>
-  <si>
     <t>48,185 / 427,200 ( 11 % )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -799,34 +731,15 @@
     <t>357 / 2,713 ( 13 % )</t>
   </si>
   <si>
-    <t>57,078 / 427,200 ( 13 % )</t>
-  </si>
-  <si>
     <t>34 / 1,518 ( 2 % )</t>
   </si>
   <si>
     <t>4,167,440 / 55,562,240 ( 8 % )</t>
   </si>
   <si>
-    <t>429 / 2,713 ( 16 % )</t>
-  </si>
-  <si>
     <t>56,265 / 427,200 ( 13 % )</t>
   </si>
   <si>
-    <t>53,694 / 427,200 ( 13 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>53,694 / 427,200 ( 13 % )</t>
-  </si>
-  <si>
-    <t>3,748,688 / 55,562,240 ( 7 % )</t>
-  </si>
-  <si>
-    <t>386 / 2,713 ( 14 % )</t>
-  </si>
-  <si>
     <t>52,744 / 427,200 ( 12 % )</t>
   </si>
   <si>
@@ -917,30 +830,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulo16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulo32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uli8_ulo8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uli8_ulo10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uli4_ulo16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cu2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -961,21 +850,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>uli8_cu2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uli8_cu4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uli8_ulo4_cu2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uli8_ulo4_cu3</t>
-  </si>
-  <si>
     <t>use local memory for cluster[128*8]; use private memory for feature[8]; remove unused for-loop; transpose feature[25600*8]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1000,26 +874,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1-2_transpose_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2_transpose_read_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2_transpose_uli8_ulo8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-4_transpose_uli8_ulo6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2_transpose_uli8_ulo12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Kernel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1028,10 +882,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cluster_1-1_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cluster_1-2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1040,10 +890,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cluster_1-4_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>use channel to transfer cluster[128*8]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1060,10 +906,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cluster_1-8_uli4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2stages</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1084,50 +926,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>feature_1-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>use channel to transfer feature[25600*8]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>feature_1-2_transpose</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>feature_1-4_transpose_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>feature_1-8_transpose_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>feature_1-16_transpose_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>basic</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>transpose feature[25600*8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>transpose feature[25600*8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>transpose feature[25600*8]; read feature[] continuously in kmeans_in kernel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>use channel to transfer cluster[128*8] and feature[25600*8]; transpose feature[25600*8]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1140,227 +946,546 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>162,458 / 427,200 ( 38 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>268 / 1,518 ( 18 % )</t>
+  </si>
+  <si>
+    <t>1,123 / 2,713 ( 41 % )</t>
+  </si>
+  <si>
+    <t>261,325 / 427,200 ( 61 % )</t>
+  </si>
+  <si>
+    <t>536 / 1,518 ( 35 % )</t>
+  </si>
+  <si>
+    <t>19,605,896 / 55,562,240 ( 35 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,435 / 2,713 ( 90 % )</t>
+  </si>
+  <si>
+    <t>257,029 / 427,200 ( 60 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,894,856 / 55,562,240 ( 32 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,367 / 2,713 ( 87 % )</t>
+  </si>
+  <si>
+    <t>baseline_no_lmem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use local memory for cluster[128*8]; use private memory for feature[8]; remove unused for-loop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use local memory for cluster[128*8]; remove unused for-loop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,193 / 427,200 ( 12 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,875,792 / 55,562,240 ( 5 % )</t>
+  </si>
+  <si>
+    <t>360 / 2,713 ( 13 % )</t>
+  </si>
+  <si>
+    <t>idem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. SWI+Channel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use private memory for feature[8]; ul8 manually on feature[25600*8]; ul manually on the outmost loop, similar to simd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,145 / 427,200 ( 23 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>131 / 1,518 ( 9 % )</t>
+  </si>
+  <si>
+    <t>11,026,256 / 55,562,240 ( 20 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>904 / 2,713 ( 33 % )</t>
+  </si>
+  <si>
+    <t>147,558 / 427,200 ( 35 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>259 / 1,518 ( 17 % )</t>
+  </si>
+  <si>
+    <t>13,725,904 / 55,562,240 ( 25 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,188 / 2,713 ( 44 % )</t>
+  </si>
+  <si>
+    <t>idem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73,695 / 427,200 ( 17 % )</t>
+  </si>
+  <si>
+    <t>70 / 1,518 ( 5 % )</t>
+  </si>
+  <si>
+    <t>4,064,976 / 55,562,240 ( 7 % )</t>
+  </si>
+  <si>
+    <t>466 / 2,713 ( 17 % )</t>
+  </si>
+  <si>
+    <t>129,054 / 427,200 ( 30 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72 / 1,518 ( 5 % )</t>
+  </si>
+  <si>
+    <t>3,979,920 / 55,562,240 ( 7 % )</t>
+  </si>
+  <si>
+    <t>966 / 2,713 ( 36 % )</t>
+  </si>
+  <si>
+    <t>218,074 / 427,200 ( 51 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>106 / 1,518 ( 7 % )</t>
+  </si>
+  <si>
+    <t>6,163,872 / 55,562,240 ( 11 % )</t>
+  </si>
+  <si>
+    <t>1,953 / 2,713 ( 72 % )</t>
+  </si>
+  <si>
+    <t>128,341 / 427,200 ( 30 % )</t>
+  </si>
+  <si>
+    <t>4,927,568 / 55,562,240 ( 9 % )</t>
+  </si>
+  <si>
+    <t>762 / 2,713 ( 28 % )</t>
+  </si>
+  <si>
+    <t>idem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use channel to transfer feature[25600*8]; transpose feature[25600*8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use channel to transfer feature[25600*8];</t>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2_transpose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UL8-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UL8-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_UL8-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_UL8-16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_UL8-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_UL8-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_UL8-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_UL8-8_CU3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_UL8-8_SIMD2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_UL8-8_SIMD2_CU2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_UL8-8_SIMD4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UL8-1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_UL8-1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_UL8-1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_UL8-4-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_UL8-6-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_UL8-1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_UL8-1-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_UL8-1-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_UL8-1-16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_1-1_UL8-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_1-1_UL8-24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_1-1_UL8-32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_1-2_UL8-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_1-2_UL8-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_1-2_UL8-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_1-4_UL8-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_1-1_UL8-1-16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_1-4_UL8-1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_1-8_UL8-1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_1-16_UL8-1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ul8-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ul1-16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ul1-32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ul8-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ul8-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ul4-16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ul8-1-1_cu2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ul8-1-1_cu4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ul8-4-1_cu2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ul8-4-1_cu3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_ul8-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_ul8-16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_ul8-20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_ul8-8_cu2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_ul8-12_cu2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_ul8-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_ul8-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_ul8-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_ul8-12_cu2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_ul8-8_cu3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_ul8-8_simd2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_ul8-8_simd2_cu2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_ul8-8_simd4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster_1-1_ul8-1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ul8-1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_ul8-1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_ul8-1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_ul8-4-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_ul8-6-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_ul8-1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_ul8-1-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_ul8-1-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_ul8-1-16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2_transpose_ul8-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2_transpose_ul8-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2_transpose_ul8-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4_transpose_ul8-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1_transpose_ul8-24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1_transpose_ul8-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1_transpose_ul8-32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster_1-4_ul8-1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster_1-4_pmem_ul8-1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster_1-8_ul4-1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4_transpose_ul8-1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-8_transpose_ul8-1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-16_transpose_ul8-1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1_transpose_ul8-1-16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_transpose_ul8-1-16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>153,836 / 427,200 ( 36 % )</t>
+  </si>
+  <si>
+    <t>291 / 1,518 ( 19 % )</t>
+  </si>
+  <si>
+    <t>18,113,104 / 55,562,240 ( 33 % )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,456 / 2,713 ( 54 % )</t>
+  </si>
+  <si>
     <t>use private memory for feature[8]; transpose feature[25600*8]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>use private memory for feature[8]; adjust on data dependency</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use private memory for feature[8]; ul8 manually on cluster[128*8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use private memory for feature[8]; ul8 manually on feature[25600*8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use private memory for feature[8]; transpose feature[25600*8]; ul8 manually on cluster[128*8] and feature[25600*8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use private memory for feature[8]; transpose feature[25600*8]; adjust on data dependency; ul8 manually on cluster[128*8] and feature[25600*8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">use private memory for feature[8]; ul8 manually on feature[25600*8]; ul2 manually on the outmost loop, similar to simd2 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use private memory for feature[8]; ul8 manually on feature[25600*8]; ul2 on the outmost loop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>162,458 / 427,200 ( 38 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>268 / 1,518 ( 18 % )</t>
-  </si>
-  <si>
-    <t>1,123 / 2,713 ( 41 % )</t>
-  </si>
-  <si>
-    <t>261,325 / 427,200 ( 61 % )</t>
-  </si>
-  <si>
-    <t>536 / 1,518 ( 35 % )</t>
-  </si>
-  <si>
-    <t>19,605,896 / 55,562,240 ( 35 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,435 / 2,713 ( 90 % )</t>
-  </si>
-  <si>
-    <t>257,029 / 427,200 ( 60 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17,894,856 / 55,562,240 ( 32 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,367 / 2,713 ( 87 % )</t>
-  </si>
-  <si>
-    <t>baseline_no_lmem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use local memory for cluster[128*8]; use private memory for feature[8]; remove unused for-loop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>use local memory for cluster[128*8]; remove unused for-loop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>idem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,193 / 427,200 ( 12 % )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,875,792 / 55,562,240 ( 5 % )</t>
-  </si>
-  <si>
-    <t>360 / 2,713 ( 13 % )</t>
-  </si>
-  <si>
-    <t>idem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_transpose_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_transpose_uli8_ulo4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_uli8_ulo8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_uli8_ulo16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_uli8_ulo20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_uli8_ulo8_cu2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_uli8_ulo12_cu2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_transpose_uli8_ulo8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_transpose_uli8_ulo12_cu2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_transpose_uli8_ulo8_cu3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_transpose_uli8_ulo8_simd2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_transpose_uli8_ulo8_simd2_cu2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_transpose_uli8_ulo8_simd4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_transpose_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_rm+=_uli8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_ulm_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_ulm_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_transpose_ulm_12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_transpose_rm+=_ulm_12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_ulm_2_ulo2m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_ulm_2_ulo4m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmem_ulm_2_ulo2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1_transpose_uli8_ulo2m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1_transpose_read_uli8_ulo2m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1_transpose_read_uli8_ulo12_ulo2m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1_transpose_read_uli8_ulo16_ulo2m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>idem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. SWI+Channel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cluster_1-4_pmem_uli8</t>
+    <t>use private memory for feature[8]; transpose feature[25600*8]; ul8 manually on feature[25600*8]; ul manually on the outmost loop, similar to simd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1368,8 +1493,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1434,7 +1560,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1473,7 +1599,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,7 +1636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1562,14 +1706,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1586,6 +1754,1993 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8979607414844953E-2"/>
+          <c:y val="0.13897515705852539"/>
+          <c:w val="0.91107517600568377"/>
+          <c:h val="0.54875443668592194"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>KM!$D$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.6984126984126985E-2"/>
+                  <c:y val="5.0264560735024916E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5873015873015873E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.3809523809523694E-2"/>
+                  <c:y val="7.1428586307667019E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5873015873015873E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>KM!$B$95:$B$131</c:f>
+              <c:strCache>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>UL8-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UL8-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CU2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CU4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CU8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P_UL8-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P_UL8-16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PT_UL8-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PT_UL8-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PT_UL8-8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PT_UL8-8_CU3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>PT_UL8-8_SIMD2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>PT_UL8-8_SIMD2_CU2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>PT_UL8-8_SIMD4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>UL8-1-1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P_UL8-1-1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>PT_UL8-1-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>PT_UL8-4-1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>PT_UL8-6-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>P_UL8-1-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>P_UL8-1-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>P_UL8-1-8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>P_UL8-1-16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>T_1-1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>T_1-1_UL8-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>T_1-1_UL8-24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>T_1-1_UL8-32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>T_1-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>T_1-2_UL8-1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>T_1-2_UL8-8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>T_1-2_UL8-12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>T_1-4_UL8-6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>T_1-1_UL8-1-16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>T_1-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>T_1-4_UL8-1-1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>T_1-8_UL8-1-1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>T_1-16_UL8-1-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>KM!$D$95:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>2.2770435244161362</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9860703812316718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0025440541486756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8867044167610425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1217168099331429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.162194394752539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.520994001713802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6524259721726731</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.753016085790886</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.315191387559814</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>114.85809906291836</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>89.28095733610823</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>147.67469879518075</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>122.04694167852064</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2931711880261929</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5156570691373954</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6587028601530789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10978716652399287</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.2206028066208576E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.915439702091092</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.7630476968644668</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.598761849487332</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.785250286587697</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1755703226690417</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.737031947784267</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>124.88937409024746</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>136.40540540540542</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2365039230508565</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.364473463920978</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>90.314736842105276</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>119.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>112.59711286089239</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31.428205128205132</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8804848112918076</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.943098852705992</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.456561546286878</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28.956800539993253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="488023440"/>
+        <c:axId val="488022880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="488023440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488022880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="488022880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.6752905886764153E-3"/>
+              <c:y val="0.33091787087403052"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488023440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cmpd="dbl">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId4"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>99261</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>98386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114454</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>139175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12896779" y="34395190"/>
+          <a:ext cx="15193" cy="2592128"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>221878</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>92123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>234140</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>129982</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16455199" y="34388927"/>
+          <a:ext cx="12262" cy="2589198"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>338526</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>92123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>344682</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>129982</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="20007651" y="34388927"/>
+          <a:ext cx="6156" cy="2589198"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>56418</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>349494</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>138791</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12153168" y="34404301"/>
+          <a:ext cx="293076" cy="2500990"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>578827</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>183173</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>146060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="圆角矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16104577" y="36328350"/>
+          <a:ext cx="290146" cy="584210"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>93261</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>386337</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>145108</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="圆角矩形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17676411" y="34626550"/>
+          <a:ext cx="293076" cy="2285058"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>111124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>4395</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>143646</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="圆角矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19973925" y="36234687"/>
+          <a:ext cx="286970" cy="556397"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.059</cdr:x>
+      <cdr:y>0.13889</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.40268</cdr:x>
+      <cdr:y>0.26989</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="文本框 7"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="944110" y="666750"/>
+          <a:ext cx="5499600" cy="628878"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>NDRange</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84647</cdr:x>
+      <cdr:y>0.13929</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97045</cdr:x>
+      <cdr:y>0.26502</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="文本框 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="13599802" y="657224"/>
+          <a:ext cx="1991891" cy="593275"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>SWI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>+Channel</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.62498</cdr:x>
+      <cdr:y>0.13773</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.84608</cdr:x>
+      <cdr:y>0.26745</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="文本框 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="10041154" y="649898"/>
+          <a:ext cx="3552417" cy="612069"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>NDRange+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>Channel</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.40254</cdr:x>
+      <cdr:y>0.13929</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.62418</cdr:x>
+      <cdr:y>0.2672</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="文本框 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6467437" y="657225"/>
+          <a:ext cx="3560884" cy="603571"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>SWI</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1849,28 +4004,280 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:AC142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
     <col min="9" max="11" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="B1" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1882,10 +4289,10 @@
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>0</v>
@@ -1917,7 +4324,7 @@
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="C3" s="3">
         <v>59119</v>
@@ -1950,10 +4357,10 @@
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="C4" s="3">
         <v>60786</v>
@@ -1986,10 +4393,10 @@
     </row>
     <row r="5" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>341</v>
+        <v>280</v>
       </c>
       <c r="C5" s="3">
         <v>59268</v>
@@ -2022,10 +4429,10 @@
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>264</v>
+        <v>356</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="C6" s="3">
         <v>61320</v>
@@ -2058,10 +4465,10 @@
     </row>
     <row r="7" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>265</v>
+        <v>357</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C7" s="3">
         <v>132410</v>
@@ -2094,10 +4501,10 @@
     </row>
     <row r="8" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C8" s="3">
         <v>272369</v>
@@ -2130,10 +4537,10 @@
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>267</v>
+        <v>359</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C9" s="3">
         <v>154666</v>
@@ -2166,10 +4573,10 @@
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>268</v>
+        <v>360</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C10" s="3">
         <v>186862</v>
@@ -2202,10 +4609,10 @@
     </row>
     <row r="11" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>269</v>
+        <v>361</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C11" s="3">
         <v>193960</v>
@@ -2238,10 +4645,10 @@
     </row>
     <row r="12" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C12" s="3">
         <v>63131</v>
@@ -2274,10 +4681,10 @@
     </row>
     <row r="13" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C13" s="3">
         <v>80744</v>
@@ -2310,10 +4717,10 @@
     </row>
     <row r="14" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C14" s="3">
         <v>97680</v>
@@ -2346,10 +4753,10 @@
     </row>
     <row r="15" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C15" s="3">
         <v>114440</v>
@@ -2382,10 +4789,10 @@
     </row>
     <row r="16" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C16" s="3">
         <v>181769</v>
@@ -2418,10 +4825,10 @@
     </row>
     <row r="17" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>275</v>
+        <v>362</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C17" s="3">
         <v>75562</v>
@@ -2454,10 +4861,10 @@
     </row>
     <row r="18" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>276</v>
+        <v>363</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C18" s="3">
         <v>103983</v>
@@ -2490,10 +4897,10 @@
     </row>
     <row r="19" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>277</v>
+        <v>364</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C19" s="3">
         <v>146009</v>
@@ -2526,10 +4933,10 @@
     </row>
     <row r="20" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>278</v>
+        <v>365</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C20" s="3">
         <v>245554</v>
@@ -2562,10 +4969,10 @@
     </row>
     <row r="21" spans="1:11" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>342</v>
+        <v>281</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
       <c r="C21" s="3">
         <v>59704</v>
@@ -2598,10 +5005,10 @@
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C22" s="3">
         <v>121369</v>
@@ -2634,10 +5041,10 @@
     </row>
     <row r="23" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="C23" s="3">
         <v>200182</v>
@@ -2670,10 +5077,10 @@
     </row>
     <row r="24" spans="1:11" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C24" s="3">
         <v>230214</v>
@@ -2706,10 +5113,10 @@
     </row>
     <row r="25" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C25" s="3">
         <v>196613</v>
@@ -2742,10 +5149,10 @@
     </row>
     <row r="26" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C26" s="3">
         <v>252417</v>
@@ -2778,10 +5185,10 @@
     </row>
     <row r="27" spans="1:11" s="10" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="C27" s="3">
         <v>62095</v>
@@ -2790,16 +5197,16 @@
         <v>88485</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="I27" s="20">
         <v>297.5</v>
@@ -2812,32 +5219,48 @@
         <v>3335569.9999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="25" t="s">
-        <v>349</v>
+    <row r="28" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="16" t="e">
+        <v>282</v>
+      </c>
+      <c r="C28" s="3">
+        <v>83186</v>
+      </c>
+      <c r="D28" s="8">
+        <v>151188</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I28" s="20">
+        <v>292.5</v>
+      </c>
+      <c r="J28" s="3">
+        <v>2.984</v>
+      </c>
+      <c r="K28" s="16">
         <f>MMULT(I28,J28)*1000</f>
-        <v>#VALUE!</v>
+        <v>872820</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="C29" s="3">
         <v>121846</v>
@@ -2870,10 +5293,10 @@
     </row>
     <row r="30" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C30" s="3">
         <v>243206</v>
@@ -2904,12 +5327,12 @@
         <v>204208.33333308197</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="C31" s="3">
         <v>238149</v>
@@ -2940,12 +5363,12 @@
         <v>186750</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="C32" s="3">
         <v>161920</v>
@@ -2954,16 +5377,16 @@
         <v>400519</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="I32" s="20">
         <v>260.41666666700002</v>
@@ -2978,10 +5401,10 @@
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="C33" s="4">
         <v>243160</v>
@@ -2990,16 +5413,16 @@
         <v>716016</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="I33" s="9">
         <v>256.25</v>
@@ -3012,12 +5435,12 @@
         <v>148881.25</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="C34" s="3">
         <v>260284</v>
@@ -3026,16 +5449,16 @@
         <v>684859</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>336</v>
+        <v>275</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>337</v>
+        <v>276</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>338</v>
+        <v>277</v>
       </c>
       <c r="I34" s="20">
         <v>194.444444444</v>
@@ -3089,10 +5512,10 @@
     </row>
     <row r="38" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="B38" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3104,10 +5527,10 @@
     </row>
     <row r="39" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>0</v>
@@ -3139,7 +5562,7 @@
     </row>
     <row r="40" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3">
@@ -3173,7 +5596,7 @@
     </row>
     <row r="41" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3">
@@ -3207,10 +5630,10 @@
     </row>
     <row r="42" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="C42" s="3">
         <v>64342</v>
@@ -3237,16 +5660,16 @@
         <v>34.106000000000002</v>
       </c>
       <c r="K42" s="16">
-        <f t="shared" ref="K42:K52" si="2">MMULT(I42,J42)*1000</f>
+        <f t="shared" ref="K42:K50" si="2">MMULT(I42,J42)*1000</f>
         <v>9890740</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>320</v>
+        <v>408</v>
       </c>
       <c r="C43" s="3">
         <v>64334</v>
@@ -3279,291 +5702,268 @@
     </row>
     <row r="44" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="C44" s="3">
-        <v>66891</v>
+        <v>139752</v>
       </c>
       <c r="D44" s="8">
-        <v>95959</v>
+        <v>322222</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>126</v>
+        <v>302</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>128</v>
+        <v>304</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>129</v>
+        <v>305</v>
       </c>
       <c r="I44" s="20">
-        <v>271.875</v>
+        <v>300</v>
       </c>
       <c r="J44" s="3">
-        <v>36.344000000000001</v>
+        <v>781.50300000000004</v>
       </c>
       <c r="K44" s="16">
-        <f>MMULT(I44,J44)*1000</f>
-        <v>9881025</v>
+        <f t="shared" si="2"/>
+        <v>234450900.00000003</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="C45" s="3">
-        <v>65770</v>
+        <v>231373</v>
       </c>
       <c r="D45" s="8">
-        <v>96290</v>
+        <v>600659</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="I45" s="20">
+        <v>260.41666666700002</v>
+      </c>
+      <c r="J45" s="3">
+        <v>930.51400000000001</v>
+      </c>
+      <c r="K45" s="16">
+        <f t="shared" si="2"/>
+        <v>242321354.16697684</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="12" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C46" s="3">
+        <v>71176</v>
+      </c>
+      <c r="D46" s="8">
+        <v>106155</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="I46" s="20">
+        <v>284.375</v>
+      </c>
+      <c r="J46" s="3">
+        <v>17.454999999999998</v>
+      </c>
+      <c r="K46" s="16">
+        <f t="shared" si="2"/>
+        <v>4963765.6249999991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" s="3">
+        <v>86588</v>
+      </c>
+      <c r="D47" s="8">
+        <v>136432</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I45" s="20">
-        <v>297.5</v>
-      </c>
-      <c r="J45" s="3">
-        <v>33.229999999999997</v>
-      </c>
-      <c r="K45" s="16">
-        <f>MMULT(I45,J45)*1000</f>
-        <v>9885925</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C46" s="3">
-        <v>61941</v>
-      </c>
-      <c r="D46" s="8">
-        <v>88976</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I46" s="20">
-        <v>315</v>
-      </c>
-      <c r="J46" s="3">
-        <v>31.375</v>
-      </c>
-      <c r="K46" s="16">
-        <f>MMULT(I46,J46)*1000</f>
-        <v>9883125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C47" s="3">
-        <v>68892</v>
-      </c>
-      <c r="D47" s="8">
-        <v>97257</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="I47" s="20">
-        <v>302.5</v>
+        <v>255.555555556</v>
       </c>
       <c r="J47" s="3">
-        <v>32.661000000000001</v>
+        <v>9.7910000000000004</v>
       </c>
       <c r="K47" s="16">
         <f t="shared" si="2"/>
-        <v>9879952.5000000019</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.15">
+        <v>2502144.4444487961</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>325</v>
+        <v>236</v>
       </c>
       <c r="C48" s="3">
-        <v>72638</v>
+        <v>117130</v>
       </c>
       <c r="D48" s="8">
-        <v>112599</v>
+        <v>200217</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>141</v>
+        <v>290</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>142</v>
+        <v>291</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>143</v>
+        <v>292</v>
       </c>
       <c r="I48" s="20">
-        <v>265.625</v>
+        <v>243.75</v>
       </c>
       <c r="J48" s="3">
-        <v>37.173000000000002</v>
+        <v>5.1689999999999996</v>
       </c>
       <c r="K48" s="16">
         <f t="shared" si="2"/>
-        <v>9874078.125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C49" s="3">
-        <v>71176</v>
-      </c>
-      <c r="D49" s="8">
-        <v>106155</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I49" s="20">
-        <v>284.375</v>
-      </c>
-      <c r="J49" s="3">
-        <v>17.454999999999998</v>
-      </c>
-      <c r="K49" s="16">
+        <v>1259943.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="22" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="4">
+        <v>168977</v>
+      </c>
+      <c r="D49" s="14">
+        <v>318108</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I49" s="9">
+        <v>247.222222222</v>
+      </c>
+      <c r="J49" s="4">
+        <v>2.617</v>
+      </c>
+      <c r="K49" s="5">
         <f t="shared" si="2"/>
-        <v>4963765.6249999991</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="22" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C50" s="4">
-        <v>86588</v>
-      </c>
-      <c r="D50" s="14">
-        <v>136432</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I50" s="9">
-        <v>255.555555556</v>
-      </c>
-      <c r="J50" s="4">
-        <v>9.7910000000000004</v>
-      </c>
-      <c r="K50" s="5">
+        <v>646980.55555497401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="12" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C50" s="3">
+        <v>174765</v>
+      </c>
+      <c r="D50" s="8">
+        <v>328026</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I50" s="20">
+        <v>235.416666666</v>
+      </c>
+      <c r="J50" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="K50" s="16">
         <f t="shared" si="2"/>
-        <v>2502144.4444487961</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C51" s="3">
-        <v>72737</v>
-      </c>
-      <c r="D51" s="8">
-        <v>104844</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I51" s="20">
-        <v>233.333333334</v>
-      </c>
-      <c r="J51" s="3">
-        <v>1098.2639999999999</v>
-      </c>
-      <c r="K51" s="16">
-        <f t="shared" si="2"/>
-        <v>256261600.00073215</v>
-      </c>
+        <v>659166.66666480002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="22" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
@@ -3576,10 +5976,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="20"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="16" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="K52" s="16"/>
     </row>
     <row r="53" spans="1:11" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
@@ -3594,1163 +5991,1789 @@
       <c r="J53" s="3"/>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="3"/>
+    <row r="54" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B54" s="4">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="2"/>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B55" s="4">
-        <v>12</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="2"/>
-      <c r="K55" s="16"/>
-    </row>
-    <row r="56" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C56" s="7" t="s">
+    <row r="55" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D55" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E55" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H55" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I56" s="17" t="s">
+      <c r="I55" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J56" s="18" t="s">
+      <c r="J55" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K56" s="19" t="s">
+      <c r="K55" s="19" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="56" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C56" s="3">
+        <v>61115</v>
+      </c>
+      <c r="D56" s="8">
+        <v>79769</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I56" s="20">
+        <v>337.5</v>
+      </c>
+      <c r="J56" s="3">
+        <v>77.847999999999999</v>
+      </c>
+      <c r="K56" s="16">
+        <f t="shared" ref="K56:K58" si="3">MMULT(I56,J56)*1000</f>
+        <v>26273700</v>
+      </c>
+    </row>
     <row r="57" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="13" t="s">
-        <v>219</v>
+      <c r="A57" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="C57" s="3">
-        <v>61115</v>
+        <v>62008</v>
       </c>
       <c r="D57" s="8">
-        <v>79769</v>
+        <v>80932</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="I57" s="20">
-        <v>337.5</v>
+        <v>360</v>
       </c>
       <c r="J57" s="3">
-        <v>77.847999999999999</v>
+        <v>72.984999999999999</v>
       </c>
       <c r="K57" s="16">
-        <f t="shared" ref="K57:K60" si="3">MMULT(I57,J57)*1000</f>
-        <v>26273700</v>
+        <f t="shared" si="3"/>
+        <v>26274600</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C58" s="3">
-        <v>62008</v>
+        <v>248</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C58" s="8">
+        <v>64984</v>
       </c>
       <c r="D58" s="8">
-        <v>80932</v>
+        <v>86624</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="I58" s="20">
-        <v>360</v>
+        <v>343.75</v>
       </c>
       <c r="J58" s="3">
-        <v>72.984999999999999</v>
+        <v>38.363</v>
       </c>
       <c r="K58" s="16">
         <f t="shared" si="3"/>
-        <v>26274600</v>
+        <v>13187281.25</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>284</v>
+        <v>389</v>
       </c>
       <c r="B59" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" s="3">
+        <v>66020</v>
+      </c>
+      <c r="D59" s="8">
+        <v>105345</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I59" s="20">
+        <v>285</v>
+      </c>
+      <c r="J59" s="3">
+        <v>5.9729999999999999</v>
+      </c>
+      <c r="K59" s="16">
+        <f t="shared" ref="K59:K65" si="4">MMULT(I59,J59)*1000</f>
+        <v>1702305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" s="3">
+        <v>190075</v>
+      </c>
+      <c r="D60" s="8">
+        <v>429192</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I60" s="20">
+        <v>275</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="K60" s="16">
+        <f t="shared" si="4"/>
+        <v>261250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="3">
+        <v>245850</v>
+      </c>
+      <c r="D61" s="8">
+        <v>621931</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I61" s="20">
         <v>280</v>
       </c>
-      <c r="C59" s="8">
-        <v>64984</v>
-      </c>
-      <c r="D59" s="8">
-        <v>86624</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="I59" s="20">
-        <v>343.75</v>
-      </c>
-      <c r="J59" s="3">
-        <v>38.363</v>
-      </c>
-      <c r="K59" s="16">
-        <f t="shared" si="3"/>
-        <v>13187281.25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C60" s="3">
-        <v>67326</v>
-      </c>
-      <c r="D60" s="8">
-        <v>107031</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I60" s="20">
-        <v>285</v>
-      </c>
-      <c r="J60" s="3">
-        <v>5.9740000000000002</v>
-      </c>
-      <c r="K60" s="16">
-        <f t="shared" si="3"/>
-        <v>1702590.0000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C61" s="3">
-        <v>66020</v>
-      </c>
-      <c r="D61" s="8">
-        <v>105345</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I61" s="20">
-        <v>285</v>
-      </c>
       <c r="J61" s="3">
-        <v>5.9729999999999999</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="K61" s="16">
-        <f t="shared" ref="K61:K68" si="4">MMULT(I61,J61)*1000</f>
-        <v>1702305</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>201880</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>287</v>
+        <v>392</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
       <c r="C62" s="3">
-        <v>190075</v>
+        <v>244623</v>
       </c>
       <c r="D62" s="8">
-        <v>429192</v>
+        <v>620250</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="I62" s="20">
-        <v>275</v>
+        <v>256.25</v>
       </c>
       <c r="J62" s="3">
-        <v>0.95</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="K62" s="16">
         <f t="shared" si="4"/>
-        <v>261250</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+        <v>195262.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>289</v>
+        <v>394</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="C63" s="3">
-        <v>245850</v>
+        <v>61638</v>
       </c>
       <c r="D63" s="8">
-        <v>621931</v>
+        <v>95718</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="I63" s="20">
-        <v>280</v>
+        <v>290.625</v>
       </c>
       <c r="J63" s="3">
-        <v>0.72099999999999997</v>
+        <v>5.8220000000000001</v>
       </c>
       <c r="K63" s="16">
         <f t="shared" si="4"/>
-        <v>201880</v>
+        <v>1692018.75</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>288</v>
+        <v>393</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="C64" s="3">
-        <v>244623</v>
+        <v>218265</v>
       </c>
       <c r="D64" s="8">
-        <v>620250</v>
+        <v>527068</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="I64" s="20">
-        <v>256.25</v>
+        <v>285</v>
       </c>
       <c r="J64" s="3">
-        <v>0.76200000000000001</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="K64" s="16">
         <f t="shared" si="4"/>
-        <v>195262.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C65" s="3">
-        <v>62903</v>
-      </c>
-      <c r="D65" s="8">
-        <v>97700</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G65" s="3" t="s">
+        <v>195795.00000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="22" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="I65" s="20">
-        <v>287.5</v>
-      </c>
-      <c r="J65" s="3">
-        <v>5.8760000000000003</v>
-      </c>
-      <c r="K65" s="16">
-        <f t="shared" si="4"/>
-        <v>1689350.0000000002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C66" s="3">
-        <v>61638</v>
-      </c>
-      <c r="D66" s="8">
-        <v>95718</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="I66" s="20">
-        <v>290.625</v>
-      </c>
-      <c r="J66" s="3">
-        <v>5.8220000000000001</v>
-      </c>
-      <c r="K66" s="16">
-        <f t="shared" si="4"/>
-        <v>1692018.75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C67" s="3">
-        <v>218265</v>
-      </c>
-      <c r="D67" s="8">
-        <v>527068</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="I67" s="20">
-        <v>285</v>
-      </c>
-      <c r="J67" s="3">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="K67" s="16">
-        <f t="shared" si="4"/>
-        <v>195795.00000000003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="22" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C68" s="4">
+      <c r="C65" s="4">
         <v>269040</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D65" s="14">
         <v>694873</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="I68" s="9">
+      <c r="E65" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I65" s="9">
         <v>254.166666666</v>
       </c>
-      <c r="J68" s="4">
+      <c r="J65" s="4">
         <v>0.629</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K65" s="5">
         <f t="shared" si="4"/>
         <v>159870.83333291402</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="B72" s="4">
-        <v>17</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="2"/>
-      <c r="K72" s="16"/>
-    </row>
-    <row r="73" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C73" s="7" t="s">
+    <row r="69" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B69" s="4">
+        <v>18</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="2"/>
+      <c r="K69" s="16"/>
+    </row>
+    <row r="70" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A70" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F70" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H70" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I73" s="17" t="s">
+      <c r="I70" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J73" s="18" t="s">
+      <c r="J70" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K73" s="19" t="s">
+      <c r="K70" s="19" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" s="3">
+        <v>61087</v>
+      </c>
+      <c r="D71" s="8">
+        <v>78196</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I71" s="20">
+        <v>345.83333333299998</v>
+      </c>
+      <c r="J71" s="3">
+        <v>85.472999999999999</v>
+      </c>
+      <c r="K71" s="16">
+        <f>MMULT(I71,J71)*1000</f>
+        <v>29559412.499971505</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C72" s="3">
+        <v>63012</v>
+      </c>
+      <c r="D72" s="8">
+        <v>87895</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I72" s="20">
+        <v>261.66666666700002</v>
+      </c>
+      <c r="J72" s="3">
+        <v>37.796999999999997</v>
+      </c>
+      <c r="K72" s="16">
+        <f>MMULT(I72,J72)*1000</f>
+        <v>9890215.0000125989</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A73" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C73" s="3">
+        <v>62477</v>
+      </c>
+      <c r="D73" s="8">
+        <v>80365</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I73" s="20">
+        <v>297.5</v>
+      </c>
+      <c r="J73" s="3">
+        <v>49.831000000000003</v>
+      </c>
+      <c r="K73" s="16">
+        <f t="shared" ref="K73:K88" si="5">MMULT(I73,J73)*1000</f>
+        <v>14824722.500000002</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>296</v>
+        <v>252</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="C74" s="3">
-        <v>61087</v>
+        <v>76726</v>
       </c>
       <c r="D74" s="8">
-        <v>78196</v>
+        <v>101501</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="I74" s="20">
-        <v>345.83333333299998</v>
+        <v>300</v>
       </c>
       <c r="J74" s="3">
-        <v>85.472999999999999</v>
+        <v>24.914000000000001</v>
       </c>
       <c r="K74" s="16">
-        <f>MMULT(I74,J74)*1000</f>
-        <v>29559412.499971505</v>
+        <f t="shared" si="5"/>
+        <v>7474200.0000000009</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>292</v>
+        <v>396</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="C75" s="3">
-        <v>63012</v>
+        <v>107967</v>
       </c>
       <c r="D75" s="8">
-        <v>87895</v>
+        <v>174685</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="I75" s="20">
-        <v>261.66666666700002</v>
+        <v>232.5</v>
       </c>
       <c r="J75" s="3">
-        <v>37.796999999999997</v>
+        <v>10.893000000000001</v>
       </c>
       <c r="K75" s="16">
-        <f>MMULT(I75,J75)*1000</f>
-        <v>9890215.0000125989</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>2532622.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>280</v>
+        <v>397</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="C76" s="3">
-        <v>62477</v>
+        <v>98193</v>
       </c>
       <c r="D76" s="8">
-        <v>80365</v>
+        <v>165605</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I76" s="20">
-        <v>297.5</v>
+        <v>259.375</v>
       </c>
       <c r="J76" s="3">
-        <v>49.831000000000003</v>
+        <v>9.8059999999999992</v>
       </c>
       <c r="K76" s="16">
-        <f t="shared" ref="K76:K90" si="5">MMULT(I76,J76)*1000</f>
-        <v>14824722.500000002</v>
+        <f t="shared" si="5"/>
+        <v>2543431.2499999995</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>280</v>
+        <v>255</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="C77" s="3">
-        <v>76726</v>
+        <v>105514</v>
       </c>
       <c r="D77" s="8">
-        <v>101501</v>
+        <v>143938</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I77" s="20">
-        <v>300</v>
+        <v>290.625</v>
       </c>
       <c r="J77" s="3">
-        <v>24.914000000000001</v>
+        <v>13.157999999999999</v>
       </c>
       <c r="K77" s="16">
         <f t="shared" si="5"/>
-        <v>7474200.0000000009</v>
+        <v>3824043.75</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="C78" s="3">
-        <v>107967</v>
+        <v>163349</v>
       </c>
       <c r="D78" s="8">
-        <v>174685</v>
+        <v>229409</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="I78" s="20">
-        <v>232.5</v>
+        <v>250</v>
       </c>
       <c r="J78" s="3">
-        <v>10.893000000000001</v>
+        <v>67.367999999999995</v>
       </c>
       <c r="K78" s="16">
         <f t="shared" si="5"/>
-        <v>2532622.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+        <v>16842000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>297</v>
+        <v>398</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="C79" s="3">
-        <v>98193</v>
+        <v>135660</v>
       </c>
       <c r="D79" s="8">
-        <v>165605</v>
+        <v>216391</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I79" s="20">
-        <v>259.375</v>
+        <v>230.555555556</v>
       </c>
       <c r="J79" s="3">
-        <v>9.8059999999999992</v>
+        <v>37.722000000000001</v>
       </c>
       <c r="K79" s="16">
         <f t="shared" si="5"/>
-        <v>2543431.2499999995</v>
+        <v>8697016.6666834317</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="C80" s="3">
-        <v>105514</v>
+        <v>61467</v>
       </c>
       <c r="D80" s="8">
-        <v>143938</v>
+        <v>77939</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I80" s="20">
-        <v>290.625</v>
+        <v>312.5</v>
       </c>
       <c r="J80" s="3">
-        <v>13.157999999999999</v>
+        <v>94.557000000000002</v>
       </c>
       <c r="K80" s="16">
         <f t="shared" si="5"/>
-        <v>3824043.75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+        <v>29549062.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>280</v>
+        <v>259</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="C81" s="3">
-        <v>163349</v>
+        <v>76652</v>
       </c>
       <c r="D81" s="8">
-        <v>229409</v>
+        <v>106272</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I81" s="20">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="J81" s="3">
-        <v>67.367999999999995</v>
+        <v>53.838000000000001</v>
       </c>
       <c r="K81" s="16">
         <f t="shared" si="5"/>
-        <v>16842000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+        <v>14805450</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>280</v>
+        <v>261</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="C82" s="3">
-        <v>135660</v>
+        <v>67497</v>
       </c>
       <c r="D82" s="8">
-        <v>216391</v>
+        <v>91915</v>
       </c>
       <c r="E82" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H82" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="I82" s="20">
-        <v>230.555555556</v>
+        <v>325</v>
       </c>
       <c r="J82" s="3">
-        <v>37.722000000000001</v>
+        <v>45.59</v>
       </c>
       <c r="K82" s="16">
-        <f t="shared" si="5"/>
-        <v>8697016.6666834317</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="3" t="s">
-        <v>301</v>
+        <f>MMULT(I82,J82)*1000</f>
+        <v>14816750.000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A83" s="13" t="s">
+        <v>316</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="C83" s="3">
-        <v>61467</v>
+        <v>76256</v>
       </c>
       <c r="D83" s="8">
-        <v>77939</v>
+        <v>105588</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="I83" s="20">
-        <v>312.5</v>
+        <v>267.5</v>
       </c>
       <c r="J83" s="3">
-        <v>94.557000000000002</v>
+        <v>55.344999999999999</v>
       </c>
       <c r="K83" s="16">
         <f t="shared" si="5"/>
-        <v>29549062.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+        <v>14804787.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="C84" s="3">
-        <v>76652</v>
+        <v>67323</v>
       </c>
       <c r="D84" s="8">
-        <v>106272</v>
+        <v>91359</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="I84" s="20">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="J84" s="3">
-        <v>53.838000000000001</v>
+        <v>45.625999999999998</v>
       </c>
       <c r="K84" s="16">
         <f t="shared" si="5"/>
-        <v>14805450</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+        <v>14828449.999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
-        <v>305</v>
+        <v>399</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>317</v>
+        <v>244</v>
       </c>
       <c r="C85" s="3">
-        <v>67497</v>
+        <v>94743</v>
       </c>
       <c r="D85" s="8">
-        <v>91915</v>
+        <v>163548</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="I85" s="20">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="J85" s="3">
-        <v>45.59</v>
+        <v>8.6289999999999996</v>
       </c>
       <c r="K85" s="16">
-        <f>MMULT(I85,J85)*1000</f>
-        <v>14816750.000000002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>2545555</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
-        <v>306</v>
+        <v>400</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="C86" s="3">
-        <v>76256</v>
+        <v>142626</v>
       </c>
       <c r="D86" s="8">
-        <v>105588</v>
+        <v>269768</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I86" s="20">
-        <v>267.5</v>
+        <v>275</v>
       </c>
       <c r="J86" s="3">
-        <v>55.344999999999999</v>
+        <v>4.915</v>
       </c>
       <c r="K86" s="16">
         <f t="shared" si="5"/>
-        <v>14804787.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+        <v>1351625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
-        <v>308</v>
+        <v>401</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="C87" s="3">
-        <v>67323</v>
+        <v>238928</v>
       </c>
       <c r="D87" s="8">
-        <v>91359</v>
+        <v>481719</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I87" s="20">
-        <v>325</v>
+        <v>267.5</v>
       </c>
       <c r="J87" s="3">
-        <v>45.625999999999998</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="K87" s="16">
         <f t="shared" si="5"/>
-        <v>14828449.999999998</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A88" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C88" s="3">
-        <v>94743</v>
-      </c>
-      <c r="D88" s="8">
-        <v>163548</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I88" s="20">
-        <v>295</v>
-      </c>
-      <c r="J88" s="3">
+        <v>792602.50000000012</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="C88" s="4">
+        <v>133053</v>
+      </c>
+      <c r="D88" s="14">
+        <v>314940</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I88" s="9">
+        <v>242.5</v>
+      </c>
+      <c r="J88" s="4">
+        <v>2.73</v>
+      </c>
+      <c r="K88" s="5">
+        <f t="shared" si="5"/>
+        <v>662025</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="16"/>
+    </row>
+    <row r="90" spans="1:29" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="16"/>
+    </row>
+    <row r="91" spans="1:29" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="16"/>
+    </row>
+    <row r="92" spans="1:29" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4">
+        <v>85.799000000000007</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="16"/>
+    </row>
+    <row r="93" spans="1:29" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="16"/>
+    </row>
+    <row r="94" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="3"/>
+      <c r="C94" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94"/>
+      <c r="AB94"/>
+      <c r="AC94"/>
+    </row>
+    <row r="95" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="3"/>
+      <c r="B95" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="C95" s="3">
+        <v>37.68</v>
+      </c>
+      <c r="D95" s="25">
+        <f>C92/C95</f>
+        <v>2.2770435244161362</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
+      <c r="W95"/>
+      <c r="X95"/>
+      <c r="Y95"/>
+      <c r="Z95"/>
+      <c r="AA95"/>
+      <c r="AB95"/>
+      <c r="AC95"/>
+    </row>
+    <row r="96" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="3"/>
+      <c r="B96" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="C96" s="3">
+        <v>9.548</v>
+      </c>
+      <c r="D96" s="25">
+        <f>C92/C96</f>
+        <v>8.9860703812316718</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96"/>
+      <c r="W96"/>
+      <c r="X96"/>
+      <c r="Y96"/>
+      <c r="Z96"/>
+      <c r="AA96"/>
+      <c r="AB96"/>
+      <c r="AC96"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="3"/>
+      <c r="B97" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="C97" s="3">
+        <v>42.844999999999999</v>
+      </c>
+      <c r="D97" s="25">
+        <f>C92/C97</f>
+        <v>2.0025440541486756</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="3"/>
+      <c r="B98" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="C98" s="3">
+        <v>22.074999999999999</v>
+      </c>
+      <c r="D98" s="25">
+        <f>C92/C98</f>
+        <v>3.8867044167610425</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="3"/>
+      <c r="B99" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="C99" s="3">
+        <v>16.751999999999999</v>
+      </c>
+      <c r="D99" s="25">
+        <f>C92/C99</f>
+        <v>5.1217168099331429</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="3"/>
+      <c r="B100" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1.677</v>
+      </c>
+      <c r="D100" s="25">
+        <f>C92/C100</f>
+        <v>51.162194394752539</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="3"/>
+      <c r="B101" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1.167</v>
+      </c>
+      <c r="D101" s="25">
+        <f>C92/C101</f>
+        <v>73.520994001713802</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="3"/>
+      <c r="B102" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="C102" s="3">
+        <v>11.212</v>
+      </c>
+      <c r="D102" s="25">
+        <f>C92/C102</f>
+        <v>7.6524259721726731</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="3"/>
+      <c r="B103" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="C103" s="3">
+        <v>2.984</v>
+      </c>
+      <c r="D103" s="25">
+        <f>C92/C103</f>
+        <v>28.753016085790886</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="3"/>
+      <c r="B104" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="D104" s="25">
+        <f>C92/C104</f>
+        <v>51.315191387559814</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="3"/>
+      <c r="B105" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0.747</v>
+      </c>
+      <c r="D105" s="25">
+        <f>C92/C105</f>
+        <v>114.85809906291836</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="3"/>
+      <c r="B106" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="D106" s="25">
+        <f>C92/C106</f>
+        <v>89.28095733610823</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="4"/>
+      <c r="B107" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="C107" s="4">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="D107" s="25">
+        <f>C92/C107</f>
+        <v>147.67469879518075</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="3"/>
+      <c r="B108" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="D108" s="25">
+        <f>C92/C108</f>
+        <v>122.04694167852064</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="3"/>
+      <c r="B109" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="C109" s="3">
+        <v>37.414999999999999</v>
+      </c>
+      <c r="D109" s="25">
+        <f>C92/C109</f>
+        <v>2.2931711880261929</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="3"/>
+      <c r="B110" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="C110" s="3">
+        <v>34.106000000000002</v>
+      </c>
+      <c r="D110" s="25">
+        <f>C92/C110</f>
+        <v>2.5156570691373954</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="3"/>
+      <c r="B111" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="C111" s="3">
+        <v>32.271000000000001</v>
+      </c>
+      <c r="D111" s="25">
+        <f>C92/C111</f>
+        <v>2.6587028601530789</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="3"/>
+      <c r="B112" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="C112" s="3">
+        <v>781.50300000000004</v>
+      </c>
+      <c r="D112" s="25">
+        <f>C92/C112</f>
+        <v>0.10978716652399287</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="3"/>
+      <c r="B113" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="C113" s="3">
+        <v>930.51400000000001</v>
+      </c>
+      <c r="D113" s="25">
+        <f>C92/C113</f>
+        <v>9.2206028066208576E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="3"/>
+      <c r="B114" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="C114" s="3">
+        <v>17.454999999999998</v>
+      </c>
+      <c r="D114" s="25">
+        <f>C92/C114</f>
+        <v>4.915439702091092</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="3"/>
+      <c r="B115" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="C115" s="3">
+        <v>9.7910000000000004</v>
+      </c>
+      <c r="D115" s="25">
+        <f>C92/C115</f>
+        <v>8.7630476968644668</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="3"/>
+      <c r="B116" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="C116" s="3">
+        <v>5.1689999999999996</v>
+      </c>
+      <c r="D116" s="25">
+        <f>C92/C116</f>
+        <v>16.598761849487332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="4"/>
+      <c r="B117" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="C117" s="4">
+        <v>2.617</v>
+      </c>
+      <c r="D117" s="25">
+        <f>C92/C117</f>
+        <v>32.785250286587697</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="3"/>
+      <c r="B118" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="C118" s="3">
+        <v>72.984999999999999</v>
+      </c>
+      <c r="D118" s="25">
+        <f>C92/C118</f>
+        <v>1.1755703226690417</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="3"/>
+      <c r="B119" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="C119" s="3">
+        <v>5.8220000000000001</v>
+      </c>
+      <c r="D119" s="25">
+        <f>C92/C119</f>
+        <v>14.737031947784267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="3"/>
+      <c r="B120" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="D120" s="25">
+        <f>C92/C120</f>
+        <v>124.88937409024746</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="4"/>
+      <c r="B121" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="C121" s="4">
+        <v>0.629</v>
+      </c>
+      <c r="D121" s="25">
+        <f>C92/C121</f>
+        <v>136.40540540540542</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="3"/>
+      <c r="B122" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="C122" s="3">
+        <v>38.363</v>
+      </c>
+      <c r="D122" s="25">
+        <f>C92/C122</f>
+        <v>2.2365039230508565</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" s="3"/>
+      <c r="B123" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="C123" s="3">
+        <v>5.9729999999999999</v>
+      </c>
+      <c r="D123" s="25">
+        <f>C92/C123</f>
+        <v>14.364473463920978</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" s="3"/>
+      <c r="B124" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="C124" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="D124" s="25">
+        <f>C92/C124</f>
+        <v>90.314736842105276</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="3"/>
+      <c r="B125" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="C125" s="3">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="D125" s="25">
+        <f>C92/C125</f>
+        <v>119.00000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" s="3"/>
+      <c r="B126" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="D126" s="25">
+        <f>C92/C126</f>
+        <v>112.59711286089239</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="4"/>
+      <c r="B127" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="C127" s="4">
+        <v>2.73</v>
+      </c>
+      <c r="D127" s="25">
+        <f>C92/C127</f>
+        <v>31.428205128205132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" s="3"/>
+      <c r="B128" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="C128" s="3">
+        <v>45.625999999999998</v>
+      </c>
+      <c r="D128" s="25">
+        <f>C92/C128</f>
+        <v>1.8804848112918076</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" s="3"/>
+      <c r="B129" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="C129" s="3">
         <v>8.6289999999999996</v>
       </c>
-      <c r="K88" s="16">
-        <f t="shared" si="5"/>
-        <v>2545555</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A89" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C89" s="3">
-        <v>142626</v>
-      </c>
-      <c r="D89" s="8">
-        <v>269768</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="I89" s="20">
-        <v>275</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="D129" s="25">
+        <f>C92/C129</f>
+        <v>9.943098852705992</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130" s="3"/>
+      <c r="B130" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="C130" s="3">
         <v>4.915</v>
       </c>
-      <c r="K89" s="16">
-        <f t="shared" si="5"/>
-        <v>1351625</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C90" s="4">
-        <v>238928</v>
-      </c>
-      <c r="D90" s="14">
-        <v>481719</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I90" s="9">
-        <v>267.5</v>
-      </c>
-      <c r="J90" s="4">
+      <c r="D130" s="25">
+        <f>C92/C130</f>
+        <v>17.456561546286878</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131" s="3"/>
+      <c r="B131" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="C131" s="3">
         <v>2.9630000000000001</v>
       </c>
-      <c r="K90" s="5">
-        <f t="shared" si="5"/>
-        <v>792602.50000000012</v>
-      </c>
+      <c r="D131" s="25">
+        <f>C92/C131</f>
+        <v>28.956800539993253</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/KM/KM_data.xlsx
+++ b/KM/KM_data.xlsx
@@ -2205,11 +2205,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="488023440"/>
-        <c:axId val="488022880"/>
+        <c:axId val="291625456"/>
+        <c:axId val="291626016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="488023440"/>
+        <c:axId val="291625456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2246,7 +2246,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488022880"/>
+        <c:crossAx val="291626016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2254,7 +2254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="488022880"/>
+        <c:axId val="291626016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2362,7 +2362,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488023440"/>
+        <c:crossAx val="291625456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3422,7 +3422,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>NDRange</a:t>
+            <a:t>NDR</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -3527,7 +3527,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-            <a:t>+Channel</a:t>
+            <a:t>+C</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
         </a:p>
@@ -3628,11 +3628,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>NDRange+</a:t>
+            <a:t>NDR+</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-            <a:t>Channel</a:t>
+            <a:t>C</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
         </a:p>
@@ -4260,8 +4260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="C95" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AC102" sqref="AC102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5183,7 +5183,7 @@
         <v>194810</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="10" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>371</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>242321354.16697684</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>385</v>
       </c>

--- a/KM/KM_data.xlsx
+++ b/KM/KM_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="415">
   <si>
     <t>ALUTs</t>
   </si>
@@ -1487,6 +1487,23 @@
   <si>
     <t>use private memory for feature[8]; transpose feature[25600*8]; ul8 manually on feature[25600*8]; ul manually on the outmost loop, similar to simd</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmem_ul8-8_simd2_cu2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>265,680 / 427,200 ( 62 % )</t>
+  </si>
+  <si>
+    <t>19,384,704 / 55,562,240 ( 35 % )</t>
+  </si>
+  <si>
+    <t>2,587 / 2,713 ( 95 % )</t>
   </si>
 </sst>
 </file>
@@ -1793,7 +1810,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>KM!$D$94</c:f>
+              <c:f>KM!$D$95</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1957,7 +1974,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KM!$B$95:$B$131</c:f>
+              <c:f>KM!$B$96:$B$132</c:f>
               <c:strCache>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
@@ -2076,7 +2093,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KM!$D$95:$D$131</c:f>
+              <c:f>KM!$D$96:$D$132</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="37"/>
@@ -2205,11 +2222,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="291625456"/>
-        <c:axId val="291626016"/>
+        <c:axId val="227006912"/>
+        <c:axId val="227008032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="291625456"/>
+        <c:axId val="227006912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2246,7 +2263,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291626016"/>
+        <c:crossAx val="227008032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2254,7 +2271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291626016"/>
+        <c:axId val="227008032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2362,7 +2379,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291625456"/>
+        <c:crossAx val="227006912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2967,13 +2984,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2997,13 +3014,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>99261</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>98386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>114454</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>139175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3047,13 +3064,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>221878</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>92123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>234140</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>129982</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3097,13 +3114,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>338526</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>92123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>344682</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>129982</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3147,13 +3164,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>56418</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>349494</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>138791</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3208,13 +3225,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>578827</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>183173</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>146060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3269,13 +3286,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>93261</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>386337</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>145108</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3330,13 +3347,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>111124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>4395</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>143646</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4258,10 +4275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC142"/>
+  <dimension ref="A1:AC143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C95" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC102" sqref="AC102"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4277,7 +4294,7 @@
         <v>232</v>
       </c>
       <c r="B1" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4999,7 +5016,7 @@
         <v>77.881</v>
       </c>
       <c r="K21" s="16">
-        <f t="shared" ref="K21:K34" si="1">MMULT(I21,J21)*1000</f>
+        <f t="shared" ref="K21:K35" si="1">MMULT(I21,J21)*1000</f>
         <v>26284837.5</v>
       </c>
     </row>
@@ -5183,306 +5200,329 @@
         <v>194810</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C27" s="3">
+        <v>249297</v>
+      </c>
+      <c r="D27" s="8">
+        <v>727429</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I27" s="20">
+        <v>247.5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="K27" s="16">
+        <f t="shared" si="1"/>
+        <v>147510</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C28" s="3">
         <v>62095</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <v>88485</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I28" s="20">
         <v>297.5</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J28" s="3">
         <v>11.212</v>
-      </c>
-      <c r="K27" s="16">
-        <f>MMULT(I27,J27)*1000</f>
-        <v>3335569.9999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C28" s="3">
-        <v>83186</v>
-      </c>
-      <c r="D28" s="8">
-        <v>151188</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="I28" s="20">
-        <v>292.5</v>
-      </c>
-      <c r="J28" s="3">
-        <v>2.984</v>
       </c>
       <c r="K28" s="16">
         <f>MMULT(I28,J28)*1000</f>
-        <v>872820</v>
+        <v>3335569.9999999995</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C29" s="3">
-        <v>121846</v>
+        <v>83186</v>
       </c>
       <c r="D29" s="8">
-        <v>248703</v>
+        <v>151188</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>85</v>
+        <v>298</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>86</v>
+        <v>299</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>88</v>
+        <v>301</v>
       </c>
       <c r="I29" s="20">
-        <v>278.125</v>
+        <v>292.5</v>
       </c>
       <c r="J29" s="3">
-        <v>1.6719999999999999</v>
+        <v>2.984</v>
       </c>
       <c r="K29" s="16">
         <f>MMULT(I29,J29)*1000</f>
-        <v>465025</v>
+        <v>872820</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="C30" s="3">
-        <v>243206</v>
+        <v>121846</v>
       </c>
       <c r="D30" s="8">
-        <v>616438</v>
+        <v>248703</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="I30" s="20">
-        <v>270.83333333299998</v>
+        <v>278.125</v>
       </c>
       <c r="J30" s="3">
-        <v>0.754</v>
+        <v>1.6719999999999999</v>
       </c>
       <c r="K30" s="16">
         <f>MMULT(I30,J30)*1000</f>
+        <v>465025</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="3">
+        <v>243206</v>
+      </c>
+      <c r="D31" s="8">
+        <v>616438</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="20">
+        <v>270.83333333299998</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.754</v>
+      </c>
+      <c r="K31" s="16">
+        <f>MMULT(I31,J31)*1000</f>
         <v>204208.33333308197</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:11" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C32" s="3">
         <v>238149</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="8">
         <v>599374</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I32" s="20">
         <v>250</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J32" s="3">
         <v>0.747</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K32" s="16">
         <f t="shared" si="1"/>
         <v>186750</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:11" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C33" s="3">
         <v>161920</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D33" s="8">
         <v>400519</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I33" s="20">
         <v>260.41666666700002</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J33" s="3">
         <v>0.96099999999999997</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K33" s="16">
         <f t="shared" si="1"/>
         <v>250260.416666987</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:11" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C34" s="4">
         <v>243160</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="14">
         <v>716016</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I34" s="9">
         <v>256.25</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J34" s="4">
         <v>0.58099999999999996</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K34" s="5">
         <f t="shared" si="1"/>
         <v>148881.25</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:11" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C35" s="3">
         <v>260284</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="8">
         <v>684859</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I35" s="20">
         <v>194.444444444</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J35" s="3">
         <v>0.70299999999999996</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K35" s="16">
         <f t="shared" si="1"/>
         <v>136694.44444413198</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="16"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
@@ -5510,473 +5550,473 @@
       <c r="J37" s="3"/>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="16"/>
+    </row>
+    <row r="39" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B39" s="4">
         <v>11</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="2"/>
-      <c r="K38" s="16"/>
-    </row>
-    <row r="39" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="6" t="s">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="2"/>
+      <c r="K39" s="16"/>
+    </row>
+    <row r="40" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I40" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="18" t="s">
+      <c r="J40" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K39" s="19" t="s">
+      <c r="K40" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3">
-        <v>59239</v>
-      </c>
-      <c r="D40" s="8">
-        <v>76146</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I40" s="20">
-        <v>342.5</v>
-      </c>
-      <c r="J40" s="3">
-        <v>86.301000000000002</v>
-      </c>
-      <c r="K40" s="16">
-        <f>MMULT(I40,J40)*1000</f>
-        <v>29558092.500000004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3">
-        <v>61094</v>
+        <v>59239</v>
       </c>
       <c r="D41" s="8">
-        <v>85818</v>
+        <v>76146</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I41" s="20">
-        <v>263.88888888899999</v>
+        <v>342.5</v>
       </c>
       <c r="J41" s="3">
-        <v>37.414999999999999</v>
+        <v>86.301000000000002</v>
       </c>
       <c r="K41" s="16">
         <f>MMULT(I41,J41)*1000</f>
+        <v>29558092.500000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3">
+        <v>61094</v>
+      </c>
+      <c r="D42" s="8">
+        <v>85818</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I42" s="20">
+        <v>263.88888888899999</v>
+      </c>
+      <c r="J42" s="3">
+        <v>37.414999999999999</v>
+      </c>
+      <c r="K42" s="16">
+        <f>MMULT(I42,J42)*1000</f>
         <v>9873402.7777819335</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C42" s="3">
-        <v>64342</v>
-      </c>
-      <c r="D42" s="8">
-        <v>92181</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I42" s="20">
-        <v>290</v>
-      </c>
-      <c r="J42" s="3">
-        <v>34.106000000000002</v>
-      </c>
-      <c r="K42" s="16">
-        <f t="shared" ref="K42:K50" si="2">MMULT(I42,J42)*1000</f>
-        <v>9890740</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>408</v>
+        <v>266</v>
       </c>
       <c r="C43" s="3">
-        <v>64334</v>
+        <v>64342</v>
       </c>
       <c r="D43" s="8">
-        <v>91946</v>
+        <v>92181</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>120</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" s="20">
+        <v>290</v>
+      </c>
+      <c r="J43" s="3">
+        <v>34.106000000000002</v>
+      </c>
+      <c r="K43" s="16">
+        <f t="shared" ref="K43:K51" si="2">MMULT(I43,J43)*1000</f>
+        <v>9890740</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C44" s="3">
+        <v>64334</v>
+      </c>
+      <c r="D44" s="8">
+        <v>91946</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I44" s="20">
         <v>306.25</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J44" s="3">
         <v>32.271000000000001</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K44" s="16">
         <f t="shared" si="2"/>
         <v>9882993.75</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C45" s="3">
         <v>139752</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D45" s="8">
         <v>322222</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I45" s="20">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J45" s="3">
         <v>781.50300000000004</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K45" s="16">
         <f t="shared" si="2"/>
         <v>234450900.00000003</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C46" s="3">
         <v>231373</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="8">
         <v>600659</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I46" s="20">
         <v>260.41666666700002</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J46" s="3">
         <v>930.51400000000001</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K46" s="16">
         <f t="shared" si="2"/>
         <v>242321354.16697684</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:11" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C47" s="3">
         <v>71176</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D47" s="8">
         <v>106155</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I47" s="20">
         <v>284.375</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J47" s="3">
         <v>17.454999999999998</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K47" s="16">
         <f t="shared" si="2"/>
         <v>4963765.6249999991</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
+    <row r="48" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C48" s="3">
         <v>86588</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D48" s="8">
         <v>136432</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I48" s="20">
         <v>255.555555556</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J48" s="3">
         <v>9.7910000000000004</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K48" s="16">
         <f t="shared" si="2"/>
         <v>2502144.4444487961</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
+    <row r="49" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C49" s="3">
         <v>117130</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D49" s="8">
         <v>200217</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I49" s="20">
         <v>243.75</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J49" s="3">
         <v>5.1689999999999996</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K49" s="16">
         <f t="shared" si="2"/>
         <v>1259943.75</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="22" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:11" s="22" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C50" s="4">
         <v>168977</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D50" s="14">
         <v>318108</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I50" s="9">
         <v>247.222222222</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J50" s="4">
         <v>2.617</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K50" s="5">
         <f t="shared" si="2"/>
         <v>646980.55555497401</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
+    <row r="51" spans="1:11" s="12" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C51" s="3">
         <v>174765</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D51" s="8">
         <v>328026</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="I50" s="20">
+      <c r="I51" s="20">
         <v>235.416666666</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J51" s="3">
         <v>2.8</v>
       </c>
-      <c r="K50" s="16">
+      <c r="K51" s="16">
         <f t="shared" si="2"/>
         <v>659166.66666480002</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="22" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="5"/>
-    </row>
-    <row r="52" spans="1:11" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="16"/>
+    <row r="52" spans="1:11" s="22" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
@@ -5991,1128 +6031,1128 @@
       <c r="J53" s="3"/>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="4" t="s">
+    <row r="54" spans="1:11" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="16"/>
+    </row>
+    <row r="55" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B55" s="4">
         <v>10</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="2"/>
-      <c r="K54" s="16"/>
-    </row>
-    <row r="55" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="6" t="s">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="2"/>
+      <c r="K55" s="16"/>
+    </row>
+    <row r="56" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D56" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E56" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F56" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H56" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I55" s="17" t="s">
+      <c r="I56" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J55" s="18" t="s">
+      <c r="J56" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K55" s="19" t="s">
+      <c r="K56" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="13" t="s">
+    <row r="57" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C57" s="3">
         <v>61115</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D57" s="8">
         <v>79769</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="I56" s="20">
-        <v>337.5</v>
-      </c>
-      <c r="J56" s="3">
-        <v>77.847999999999999</v>
-      </c>
-      <c r="K56" s="16">
-        <f t="shared" ref="K56:K58" si="3">MMULT(I56,J56)*1000</f>
-        <v>26273700</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C57" s="3">
-        <v>62008</v>
-      </c>
-      <c r="D57" s="8">
-        <v>80932</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>201</v>
       </c>
       <c r="G57" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I57" s="20">
+        <v>337.5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>77.847999999999999</v>
+      </c>
+      <c r="K57" s="16">
+        <f t="shared" ref="K57:K59" si="3">MMULT(I57,J57)*1000</f>
+        <v>26273700</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C58" s="3">
+        <v>62008</v>
+      </c>
+      <c r="D58" s="8">
+        <v>80932</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I57" s="20">
+      <c r="I58" s="20">
         <v>360</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J58" s="3">
         <v>72.984999999999999</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K58" s="16">
         <f t="shared" si="3"/>
         <v>26274600</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B59" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C59" s="8">
         <v>64984</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D59" s="8">
         <v>86624</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I59" s="20">
         <v>343.75</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J59" s="3">
         <v>38.363</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K59" s="16">
         <f t="shared" si="3"/>
         <v>13187281.25</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3" t="s">
+    <row r="60" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C59" s="3">
-        <v>66020</v>
-      </c>
-      <c r="D59" s="8">
-        <v>105345</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I59" s="20">
-        <v>285</v>
-      </c>
-      <c r="J59" s="3">
-        <v>5.9729999999999999</v>
-      </c>
-      <c r="K59" s="16">
-        <f t="shared" ref="K59:K65" si="4">MMULT(I59,J59)*1000</f>
-        <v>1702305</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>237</v>
       </c>
       <c r="C60" s="3">
+        <v>66020</v>
+      </c>
+      <c r="D60" s="8">
+        <v>105345</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I60" s="20">
+        <v>285</v>
+      </c>
+      <c r="J60" s="3">
+        <v>5.9729999999999999</v>
+      </c>
+      <c r="K60" s="16">
+        <f t="shared" ref="K60:K66" si="4">MMULT(I60,J60)*1000</f>
+        <v>1702305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" s="3">
         <v>190075</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D61" s="8">
         <v>429192</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="I60" s="20">
+      <c r="I61" s="20">
         <v>275</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J61" s="3">
         <v>0.95</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K61" s="16">
         <f t="shared" si="4"/>
         <v>261250</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
+    <row r="62" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C62" s="3">
         <v>245850</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="8">
         <v>621931</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="I61" s="20">
+      <c r="I62" s="20">
         <v>280</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J62" s="3">
         <v>0.72099999999999997</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K62" s="16">
         <f t="shared" si="4"/>
         <v>201880</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
+    <row r="63" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C63" s="3">
         <v>244623</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D63" s="8">
         <v>620250</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="I62" s="20">
+      <c r="I63" s="20">
         <v>256.25</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J63" s="3">
         <v>0.76200000000000001</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K63" s="16">
         <f t="shared" si="4"/>
         <v>195262.5</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
+    <row r="64" spans="1:11" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C64" s="3">
         <v>61638</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D64" s="8">
         <v>95718</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H64" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="I63" s="20">
+      <c r="I64" s="20">
         <v>290.625</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J64" s="3">
         <v>5.8220000000000001</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K64" s="16">
         <f t="shared" si="4"/>
         <v>1692018.75</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C65" s="3">
         <v>218265</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D65" s="8">
         <v>527068</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I64" s="20">
+      <c r="I65" s="20">
         <v>285</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J65" s="3">
         <v>0.68700000000000006</v>
       </c>
-      <c r="K64" s="16">
+      <c r="K65" s="16">
         <f t="shared" si="4"/>
         <v>195795.00000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="22" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+    <row r="66" spans="1:11" s="22" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C66" s="4">
         <v>269040</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D66" s="14">
         <v>694873</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F66" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I66" s="9">
         <v>254.166666666</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J66" s="4">
         <v>0.629</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K66" s="5">
         <f t="shared" si="4"/>
         <v>159870.83333291402</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
+    <row r="70" spans="1:11" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A70" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B70" s="4">
         <v>18</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="2"/>
-      <c r="K69" s="16"/>
-    </row>
-    <row r="70" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="6" t="s">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="2"/>
+      <c r="K70" s="16"/>
+    </row>
+    <row r="71" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B71" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D71" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E71" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F71" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G71" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H71" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I70" s="17" t="s">
+      <c r="I71" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J70" s="18" t="s">
+      <c r="J71" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K70" s="19" t="s">
+      <c r="K71" s="19" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C71" s="3">
-        <v>61087</v>
-      </c>
-      <c r="D71" s="8">
-        <v>78196</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I71" s="20">
-        <v>345.83333333299998</v>
-      </c>
-      <c r="J71" s="3">
-        <v>85.472999999999999</v>
-      </c>
-      <c r="K71" s="16">
-        <f>MMULT(I71,J71)*1000</f>
-        <v>29559412.499971505</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>244</v>
+        <v>250</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="C72" s="3">
-        <v>63012</v>
+        <v>61087</v>
       </c>
       <c r="D72" s="8">
-        <v>87895</v>
+        <v>78196</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I72" s="20">
-        <v>261.66666666700002</v>
+        <v>345.83333333299998</v>
       </c>
       <c r="J72" s="3">
-        <v>37.796999999999997</v>
+        <v>85.472999999999999</v>
       </c>
       <c r="K72" s="16">
         <f>MMULT(I72,J72)*1000</f>
-        <v>9890215.0000125989</v>
+        <v>29559412.499971505</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>251</v>
+        <v>379</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>244</v>
       </c>
       <c r="C73" s="3">
-        <v>62477</v>
+        <v>63012</v>
       </c>
       <c r="D73" s="8">
-        <v>80365</v>
+        <v>87895</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="I73" s="20">
-        <v>297.5</v>
+        <v>261.66666666700002</v>
       </c>
       <c r="J73" s="3">
-        <v>49.831000000000003</v>
+        <v>37.796999999999997</v>
       </c>
       <c r="K73" s="16">
-        <f t="shared" ref="K73:K88" si="5">MMULT(I73,J73)*1000</f>
-        <v>14824722.500000002</v>
+        <f>MMULT(I73,J73)*1000</f>
+        <v>9890215.0000125989</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>244</v>
       </c>
       <c r="C74" s="3">
+        <v>62477</v>
+      </c>
+      <c r="D74" s="8">
+        <v>80365</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I74" s="20">
+        <v>297.5</v>
+      </c>
+      <c r="J74" s="3">
+        <v>49.831000000000003</v>
+      </c>
+      <c r="K74" s="16">
+        <f t="shared" ref="K74:K89" si="5">MMULT(I74,J74)*1000</f>
+        <v>14824722.500000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C75" s="3">
         <v>76726</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D75" s="8">
         <v>101501</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H75" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I74" s="20">
+      <c r="I75" s="20">
         <v>300</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J75" s="3">
         <v>24.914000000000001</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K75" s="16">
         <f t="shared" si="5"/>
         <v>7474200.0000000009</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B76" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C76" s="3">
         <v>107967</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D76" s="8">
         <v>174685</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G76" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H76" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I75" s="20">
+      <c r="I76" s="20">
         <v>232.5</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J76" s="3">
         <v>10.893000000000001</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K76" s="16">
         <f t="shared" si="5"/>
         <v>2532622.5</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:11" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C77" s="3">
         <v>98193</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D77" s="8">
         <v>165605</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G77" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H77" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I76" s="20">
+      <c r="I77" s="20">
         <v>259.375</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J77" s="3">
         <v>9.8059999999999992</v>
       </c>
-      <c r="K76" s="16">
+      <c r="K77" s="16">
         <f t="shared" si="5"/>
         <v>2543431.2499999995</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C78" s="3">
         <v>105514</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="8">
         <v>143938</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G78" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H78" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I77" s="20">
+      <c r="I78" s="20">
         <v>290.625</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J78" s="3">
         <v>13.157999999999999</v>
       </c>
-      <c r="K77" s="16">
+      <c r="K78" s="16">
         <f t="shared" si="5"/>
         <v>3824043.75</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="3" t="s">
+    <row r="79" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B79" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C79" s="3">
         <v>163349</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D79" s="8">
         <v>229409</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G79" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H79" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I78" s="20">
+      <c r="I79" s="20">
         <v>250</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J79" s="3">
         <v>67.367999999999995</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K79" s="16">
         <f t="shared" si="5"/>
         <v>16842000</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="3" t="s">
+    <row r="80" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B80" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C80" s="3">
         <v>135660</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="8">
         <v>216391</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G80" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H80" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I79" s="20">
+      <c r="I80" s="20">
         <v>230.555555556</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J80" s="3">
         <v>37.722000000000001</v>
       </c>
-      <c r="K79" s="16">
+      <c r="K80" s="16">
         <f t="shared" si="5"/>
         <v>8697016.6666834317</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="3" t="s">
+    <row r="81" spans="1:29" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C81" s="3">
         <v>61467</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D81" s="8">
         <v>77939</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G81" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I80" s="20">
+      <c r="I81" s="20">
         <v>312.5</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J81" s="3">
         <v>94.557000000000002</v>
       </c>
-      <c r="K80" s="16">
+      <c r="K81" s="16">
         <f t="shared" si="5"/>
         <v>29549062.5</v>
       </c>
     </row>
-    <row r="81" spans="1:29" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="3" t="s">
+    <row r="82" spans="1:29" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C82" s="3">
         <v>76652</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="8">
         <v>106272</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G82" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H82" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I81" s="20">
+      <c r="I82" s="20">
         <v>275</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J82" s="3">
         <v>53.838000000000001</v>
       </c>
-      <c r="K81" s="16">
+      <c r="K82" s="16">
         <f t="shared" si="5"/>
         <v>14805450</v>
       </c>
     </row>
-    <row r="82" spans="1:29" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A82" s="3" t="s">
+    <row r="83" spans="1:29" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A83" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C83" s="3">
         <v>67497</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D83" s="8">
         <v>91915</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G83" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="H83" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I82" s="20">
+      <c r="I83" s="20">
         <v>325</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J83" s="3">
         <v>45.59</v>
       </c>
-      <c r="K82" s="16">
-        <f>MMULT(I82,J82)*1000</f>
+      <c r="K83" s="16">
+        <f>MMULT(I83,J83)*1000</f>
         <v>14816750.000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:29" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="13" t="s">
+    <row r="84" spans="1:29" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A84" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C84" s="3">
         <v>76256</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D84" s="8">
         <v>105588</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G84" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H84" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I83" s="20">
+      <c r="I84" s="20">
         <v>267.5</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J84" s="3">
         <v>55.344999999999999</v>
       </c>
-      <c r="K83" s="16">
+      <c r="K84" s="16">
         <f t="shared" si="5"/>
         <v>14804787.5</v>
       </c>
     </row>
-    <row r="84" spans="1:29" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A84" s="3" t="s">
+    <row r="85" spans="1:29" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C85" s="3">
         <v>67323</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D85" s="8">
         <v>91359</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H85" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I84" s="20">
+      <c r="I85" s="20">
         <v>325</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J85" s="3">
         <v>45.625999999999998</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K85" s="16">
         <f t="shared" si="5"/>
         <v>14828449.999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:29" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="3" t="s">
+    <row r="86" spans="1:29" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A86" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C86" s="3">
         <v>94743</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="8">
         <v>163548</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G86" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H86" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I85" s="20">
+      <c r="I86" s="20">
         <v>295</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J86" s="3">
         <v>8.6289999999999996</v>
       </c>
-      <c r="K85" s="16">
+      <c r="K86" s="16">
         <f t="shared" si="5"/>
         <v>2545555</v>
       </c>
     </row>
-    <row r="86" spans="1:29" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A86" s="3" t="s">
+    <row r="87" spans="1:29" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C87" s="3">
         <v>142626</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D87" s="8">
         <v>269768</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E87" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F87" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G87" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H87" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I86" s="20">
+      <c r="I87" s="20">
         <v>275</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J87" s="3">
         <v>4.915</v>
       </c>
-      <c r="K86" s="16">
+      <c r="K87" s="16">
         <f t="shared" si="5"/>
         <v>1351625</v>
       </c>
     </row>
-    <row r="87" spans="1:29" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="3" t="s">
+    <row r="88" spans="1:29" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C88" s="3">
         <v>238928</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="8">
         <v>481719</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F88" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G88" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="H88" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I87" s="20">
+      <c r="I88" s="20">
         <v>267.5</v>
       </c>
-      <c r="J87" s="3">
+      <c r="J88" s="3">
         <v>2.9630000000000001</v>
       </c>
-      <c r="K87" s="16">
+      <c r="K88" s="16">
         <f t="shared" si="5"/>
         <v>792602.50000000012</v>
       </c>
     </row>
-    <row r="88" spans="1:29" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A88" s="4" t="s">
+    <row r="89" spans="1:29" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A89" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B88" s="33" t="s">
+      <c r="B89" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C89" s="4">
         <v>133053</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D89" s="14">
         <v>314940</v>
       </c>
-      <c r="E88" s="14" t="s">
+      <c r="E89" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F89" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G89" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H89" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="I88" s="9">
+      <c r="I89" s="9">
         <v>242.5</v>
       </c>
-      <c r="J88" s="4">
+      <c r="J89" s="4">
         <v>2.73</v>
       </c>
-      <c r="K88" s="5">
+      <c r="K89" s="5">
         <f t="shared" si="5"/>
         <v>662025</v>
       </c>
     </row>
-    <row r="89" spans="1:29" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="16"/>
-    </row>
     <row r="90" spans="1:29" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="8"/>
@@ -7140,10 +7180,8 @@
     <row r="92" spans="1:29" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
-      <c r="C92" s="4">
-        <v>85.799000000000007</v>
-      </c>
-      <c r="D92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="8"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -7155,7 +7193,9 @@
     <row r="93" spans="1:29" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
+      <c r="C93" s="4">
+        <v>85.799000000000007</v>
+      </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -7165,51 +7205,26 @@
       <c r="J93" s="3"/>
       <c r="K93" s="16"/>
     </row>
-    <row r="94" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:29" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
-      <c r="C94" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="21"/>
-      <c r="K94" s="21"/>
-      <c r="L94"/>
-      <c r="M94"/>
-      <c r="N94"/>
-      <c r="O94"/>
-      <c r="P94"/>
-      <c r="Q94"/>
-      <c r="R94"/>
-      <c r="S94"/>
-      <c r="T94"/>
-      <c r="U94"/>
-      <c r="V94"/>
-      <c r="W94"/>
-      <c r="X94"/>
-      <c r="Y94"/>
-      <c r="Z94"/>
-      <c r="AA94"/>
-      <c r="AB94"/>
-      <c r="AC94"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="16"/>
     </row>
     <row r="95" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
-      <c r="B95" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="C95" s="3">
-        <v>37.68</v>
-      </c>
-      <c r="D95" s="25">
-        <f>C92/C95</f>
-        <v>2.2770435244161362</v>
+      <c r="C95" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="E95"/>
       <c r="F95"/>
@@ -7240,14 +7255,14 @@
     <row r="96" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C96" s="3">
-        <v>9.548</v>
+        <v>37.68</v>
       </c>
       <c r="D96" s="25">
-        <f>C92/C96</f>
-        <v>8.9860703812316718</v>
+        <f>C93/C96</f>
+        <v>2.2770435244161362</v>
       </c>
       <c r="E96"/>
       <c r="F96"/>
@@ -7275,480 +7290,514 @@
       <c r="AB96"/>
       <c r="AC96"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="26" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C97" s="3">
-        <v>42.844999999999999</v>
+        <v>9.548</v>
       </c>
       <c r="D97" s="25">
-        <f>C92/C97</f>
-        <v>2.0025440541486756</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+        <f>C93/C97</f>
+        <v>8.9860703812316718</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
+      <c r="W97"/>
+      <c r="X97"/>
+      <c r="Y97"/>
+      <c r="Z97"/>
+      <c r="AA97"/>
+      <c r="AB97"/>
+      <c r="AC97"/>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C98" s="3">
-        <v>22.074999999999999</v>
+        <v>42.844999999999999</v>
       </c>
       <c r="D98" s="25">
-        <f>C92/C98</f>
-        <v>3.8867044167610425</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+        <f>C93/C98</f>
+        <v>2.0025440541486756</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="B99" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C99" s="3">
-        <v>16.751999999999999</v>
+        <v>22.074999999999999</v>
       </c>
       <c r="D99" s="25">
-        <f>C92/C99</f>
-        <v>5.1217168099331429</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+        <f>C93/C99</f>
+        <v>3.8867044167610425</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="26" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C100" s="3">
-        <v>1.677</v>
+        <v>16.751999999999999</v>
       </c>
       <c r="D100" s="25">
-        <f>C92/C100</f>
-        <v>51.162194394752539</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+        <f>C93/C100</f>
+        <v>5.1217168099331429</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="B101" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C101" s="3">
-        <v>1.167</v>
+        <v>1.677</v>
       </c>
       <c r="D101" s="25">
-        <f>C92/C101</f>
-        <v>73.520994001713802</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+        <f>C93/C101</f>
+        <v>51.162194394752539</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C102" s="3">
-        <v>11.212</v>
+        <v>1.167</v>
       </c>
       <c r="D102" s="25">
-        <f>C92/C102</f>
-        <v>7.6524259721726731</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+        <f>C93/C102</f>
+        <v>73.520994001713802</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="B103" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C103" s="3">
-        <v>2.984</v>
+        <v>11.212</v>
       </c>
       <c r="D103" s="25">
-        <f>C92/C103</f>
-        <v>28.753016085790886</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+        <f>C93/C103</f>
+        <v>7.6524259721726731</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C104" s="3">
-        <v>1.6719999999999999</v>
+        <v>2.984</v>
       </c>
       <c r="D104" s="25">
-        <f>C92/C104</f>
-        <v>51.315191387559814</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+        <f>C93/C104</f>
+        <v>28.753016085790886</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="B105" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C105" s="3">
-        <v>0.747</v>
+        <v>1.6719999999999999</v>
       </c>
       <c r="D105" s="25">
-        <f>C92/C105</f>
-        <v>114.85809906291836</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+        <f>C93/C105</f>
+        <v>51.315191387559814</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0.747</v>
+      </c>
+      <c r="D106" s="25">
+        <f>C93/C106</f>
+        <v>114.85809906291836</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A107" s="3"/>
+      <c r="B107" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C107" s="3">
         <v>0.96099999999999997</v>
       </c>
-      <c r="D106" s="25">
-        <f>C92/C106</f>
+      <c r="D107" s="25">
+        <f>C93/C107</f>
         <v>89.28095733610823</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="4"/>
-      <c r="B107" s="27" t="s">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A108" s="4"/>
+      <c r="B108" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C108" s="4">
         <v>0.58099999999999996</v>
       </c>
-      <c r="D107" s="25">
-        <f>C92/C107</f>
+      <c r="D108" s="25">
+        <f>C93/C108</f>
         <v>147.67469879518075</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="3"/>
-      <c r="B108" s="26" t="s">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A109" s="3"/>
+      <c r="B109" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C109" s="3">
         <v>0.70299999999999996</v>
       </c>
-      <c r="D108" s="25">
-        <f>C92/C108</f>
+      <c r="D109" s="25">
+        <f>C93/C109</f>
         <v>122.04694167852064</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="3"/>
-      <c r="B109" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="C109" s="3">
-        <v>37.414999999999999</v>
-      </c>
-      <c r="D109" s="25">
-        <f>C92/C109</f>
-        <v>2.2931711880261929</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C110" s="3">
-        <v>34.106000000000002</v>
+        <v>37.414999999999999</v>
       </c>
       <c r="D110" s="25">
-        <f>C92/C110</f>
-        <v>2.5156570691373954</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+        <f>C93/C110</f>
+        <v>2.2931711880261929</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C111" s="3">
-        <v>32.271000000000001</v>
+        <v>34.106000000000002</v>
       </c>
       <c r="D111" s="25">
-        <f>C92/C111</f>
-        <v>2.6587028601530789</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+        <f>C93/C111</f>
+        <v>2.5156570691373954</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C112" s="3">
-        <v>781.50300000000004</v>
+        <v>32.271000000000001</v>
       </c>
       <c r="D112" s="25">
-        <f>C92/C112</f>
-        <v>0.10978716652399287</v>
+        <f>C93/C112</f>
+        <v>2.6587028601530789</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="B113" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C113" s="3">
-        <v>930.51400000000001</v>
+        <v>781.50300000000004</v>
       </c>
       <c r="D113" s="25">
-        <f>C92/C113</f>
-        <v>9.2206028066208576E-2</v>
+        <f>C93/C113</f>
+        <v>0.10978716652399287</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C114" s="3">
-        <v>17.454999999999998</v>
+        <v>930.51400000000001</v>
       </c>
       <c r="D114" s="25">
-        <f>C92/C114</f>
-        <v>4.915439702091092</v>
+        <f>C93/C114</f>
+        <v>9.2206028066208576E-2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="B115" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C115" s="3">
-        <v>9.7910000000000004</v>
+        <v>17.454999999999998</v>
       </c>
       <c r="D115" s="25">
-        <f>C92/C115</f>
-        <v>8.7630476968644668</v>
+        <f>C93/C115</f>
+        <v>4.915439702091092</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="C116" s="3">
+        <v>9.7910000000000004</v>
+      </c>
+      <c r="D116" s="25">
+        <f>C93/C116</f>
+        <v>8.7630476968644668</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="3"/>
+      <c r="B117" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C117" s="3">
         <v>5.1689999999999996</v>
       </c>
-      <c r="D116" s="25">
-        <f>C92/C116</f>
+      <c r="D117" s="25">
+        <f>C93/C117</f>
         <v>16.598761849487332</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="4"/>
-      <c r="B117" s="32" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="4"/>
+      <c r="B118" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C118" s="4">
         <v>2.617</v>
       </c>
-      <c r="D117" s="25">
-        <f>C92/C117</f>
+      <c r="D118" s="25">
+        <f>C93/C118</f>
         <v>32.785250286587697</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="3"/>
-      <c r="B118" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="C118" s="3">
-        <v>72.984999999999999</v>
-      </c>
-      <c r="D118" s="25">
-        <f>C92/C118</f>
-        <v>1.1755703226690417</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C119" s="3">
-        <v>5.8220000000000001</v>
+        <v>72.984999999999999</v>
       </c>
       <c r="D119" s="25">
-        <f>C92/C119</f>
-        <v>14.737031947784267</v>
+        <f>C93/C119</f>
+        <v>1.1755703226690417</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="C120" s="3">
+        <v>5.8220000000000001</v>
+      </c>
+      <c r="D120" s="25">
+        <f>C93/C120</f>
+        <v>14.737031947784267</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="3"/>
+      <c r="B121" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C121" s="3">
         <v>0.68700000000000006</v>
       </c>
-      <c r="D120" s="25">
-        <f>C92/C120</f>
+      <c r="D121" s="25">
+        <f>C93/C121</f>
         <v>124.88937409024746</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" s="4"/>
-      <c r="B121" s="29" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="4"/>
+      <c r="B122" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C122" s="4">
         <v>0.629</v>
       </c>
-      <c r="D121" s="25">
-        <f>C92/C121</f>
+      <c r="D122" s="25">
+        <f>C93/C122</f>
         <v>136.40540540540542</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122" s="3"/>
-      <c r="B122" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="C122" s="3">
-        <v>38.363</v>
-      </c>
-      <c r="D122" s="25">
-        <f>C92/C122</f>
-        <v>2.2365039230508565</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C123" s="3">
-        <v>5.9729999999999999</v>
+        <v>38.363</v>
       </c>
       <c r="D123" s="25">
-        <f>C92/C123</f>
-        <v>14.364473463920978</v>
+        <f>C93/C123</f>
+        <v>2.2365039230508565</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
       <c r="B124" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C124" s="3">
-        <v>0.95</v>
+        <v>5.9729999999999999</v>
       </c>
       <c r="D124" s="25">
-        <f>C92/C124</f>
-        <v>90.314736842105276</v>
+        <f>C93/C124</f>
+        <v>14.364473463920978</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
       <c r="B125" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C125" s="3">
-        <v>0.72099999999999997</v>
+        <v>0.95</v>
       </c>
       <c r="D125" s="25">
-        <f>C92/C125</f>
-        <v>119.00000000000001</v>
+        <f>C93/C125</f>
+        <v>90.314736842105276</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="D126" s="25">
+        <f>C93/C126</f>
+        <v>119.00000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="3"/>
+      <c r="B127" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C127" s="3">
         <v>0.76200000000000001</v>
       </c>
-      <c r="D126" s="25">
-        <f>C92/C126</f>
+      <c r="D127" s="25">
+        <f>C93/C127</f>
         <v>112.59711286089239</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="4"/>
-      <c r="B127" s="31" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" s="4"/>
+      <c r="B128" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C128" s="4">
         <v>2.73</v>
       </c>
-      <c r="D127" s="25">
-        <f>C92/C127</f>
+      <c r="D128" s="25">
+        <f>C93/C128</f>
         <v>31.428205128205132</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="3"/>
-      <c r="B128" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="C128" s="3">
-        <v>45.625999999999998</v>
-      </c>
-      <c r="D128" s="25">
-        <f>C92/C128</f>
-        <v>1.8804848112918076</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
       <c r="B129" s="30" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C129" s="3">
-        <v>8.6289999999999996</v>
+        <v>45.625999999999998</v>
       </c>
       <c r="D129" s="25">
-        <f>C92/C129</f>
-        <v>9.943098852705992</v>
+        <f>C93/C129</f>
+        <v>1.8804848112918076</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
       <c r="B130" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C130" s="3">
-        <v>4.915</v>
+        <v>8.6289999999999996</v>
       </c>
       <c r="D130" s="25">
-        <f>C92/C130</f>
-        <v>17.456561546286878</v>
+        <f>C93/C130</f>
+        <v>9.943098852705992</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
       <c r="B131" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="C131" s="3">
+        <v>4.915</v>
+      </c>
+      <c r="D131" s="25">
+        <f>C93/C131</f>
+        <v>17.456561546286878</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132" s="3"/>
+      <c r="B132" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C132" s="3">
         <v>2.9630000000000001</v>
       </c>
-      <c r="D131" s="25">
-        <f>C92/C131</f>
+      <c r="D132" s="25">
+        <f>C93/C132</f>
         <v>28.956800539993253</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B138" s="3"/>
@@ -7769,6 +7818,10 @@
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/KM/KM_data.xlsx
+++ b/KM/KM_data.xlsx
@@ -2222,11 +2222,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="227006912"/>
-        <c:axId val="227008032"/>
+        <c:axId val="572788880"/>
+        <c:axId val="572789440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="227006912"/>
+        <c:axId val="572788880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,7 +2263,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227008032"/>
+        <c:crossAx val="572789440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2271,7 +2271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227008032"/>
+        <c:axId val="572789440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2309,7 +2309,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-                  <a:t>Speedup</a:t>
+                  <a:t>Performance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+                  <a:t> s</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>peedup over baseline</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
               </a:p>
@@ -2319,8 +2327,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.6752905886764153E-3"/>
-              <c:y val="0.33091787087403052"/>
+              <c:x val="9.5985500608735275E-3"/>
+              <c:y val="0.12198913722979113"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2379,7 +2387,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227006912"/>
+        <c:crossAx val="572788880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2982,14 +2990,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>687916</xdr:colOff>
       <xdr:row>96</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>10582</xdr:colOff>
       <xdr:row>124</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
@@ -3013,15 +3021,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>99261</xdr:colOff>
+      <xdr:colOff>629486</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>98386</xdr:rowOff>
+      <xdr:rowOff>87803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>114454</xdr:colOff>
+      <xdr:colOff>644679</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>139175</xdr:rowOff>
+      <xdr:rowOff>128592</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3030,8 +3038,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="12896779" y="34395190"/>
-          <a:ext cx="15193" cy="2592128"/>
+          <a:off x="13392986" y="35082653"/>
+          <a:ext cx="15193" cy="2612539"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3062,16 +3070,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>221878</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>363165</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>92123</xdr:rowOff>
+      <xdr:rowOff>81011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>234140</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>375427</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>129982</xdr:rowOff>
+      <xdr:rowOff>118870</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3080,8 +3088,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="16455199" y="34388927"/>
-          <a:ext cx="12262" cy="2589198"/>
+          <a:off x="17190665" y="34902824"/>
+          <a:ext cx="12262" cy="2657234"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3112,16 +3120,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>338526</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>90876</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>92123</xdr:rowOff>
+      <xdr:rowOff>82598</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>344682</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>97032</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>129982</xdr:rowOff>
+      <xdr:rowOff>120457</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3130,8 +3138,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="20007651" y="34388927"/>
-          <a:ext cx="6156" cy="2589198"/>
+          <a:off x="21083976" y="35077448"/>
+          <a:ext cx="6156" cy="2609609"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3163,13 +3171,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>56418</xdr:colOff>
+      <xdr:colOff>551718</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>349494</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>158994</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>138791</xdr:rowOff>
     </xdr:to>
@@ -3180,8 +3188,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12153168" y="34404301"/>
-          <a:ext cx="293076" cy="2500990"/>
+          <a:off x="12629418" y="35232975"/>
+          <a:ext cx="293076" cy="2472416"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3223,14 +3231,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>578827</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>16852</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>183173</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>306998</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>146060</xdr:rowOff>
     </xdr:to>
@@ -3241,8 +3249,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16104577" y="36328350"/>
-          <a:ext cx="290146" cy="584210"/>
+          <a:off x="16895152" y="37118925"/>
+          <a:ext cx="290146" cy="593735"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3284,14 +3292,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>93261</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>340911</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>386337</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>633987</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>145108</xdr:rowOff>
     </xdr:to>
@@ -3302,8 +3310,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17676411" y="34626550"/>
-          <a:ext cx="293076" cy="2285058"/>
+          <a:off x="18590811" y="35413950"/>
+          <a:ext cx="293076" cy="2297758"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3345,14 +3353,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>111124</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>4395</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>461595</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>143646</xdr:rowOff>
     </xdr:to>
@@ -3363,8 +3371,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19973925" y="36234687"/>
-          <a:ext cx="286970" cy="556397"/>
+          <a:off x="21164550" y="37147500"/>
+          <a:ext cx="290145" cy="562746"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4277,8 +4285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F137" sqref="F137"/>
+    <sheetView tabSelected="1" topLeftCell="C91" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L135" sqref="L135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
